--- a/ISORC2017/evaluation/ExecutionTime.xlsx
+++ b/ISORC2017/evaluation/ExecutionTime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$2</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3:$A$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$1:$B$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$3:$B$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$1:$C$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$3:$C$11</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$3:$D$11</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1:$B$2</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$B$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$3:$D$11</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$1:$E$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$3:$E$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$1:$A$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$3:$A$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$3:$C$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$3:$D$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -127,22 +119,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -152,7 +144,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0987174D-96B3-4A7A-943A-04BFD98EE6C4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>tcp_snd_dat TINET</cx:v>
             </cx:txData>
           </cx:tx>
@@ -165,7 +157,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F7745AD1-1607-4BDD-A47A-928D90340C1D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>tcp_snd_dat TINET+TECS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -178,7 +170,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4F2193FF-62CA-4DE7-961B-4AD846D669F2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>tcp_rcv_dat TINET</cx:v>
             </cx:txData>
           </cx:tx>
@@ -191,7 +183,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8361D057-A41F-4F19-A2EB-6B74CF3911FB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>tcp_rcv_dat TINET+TECS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1094,7 +1086,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1141,7 +1133,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1155,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1169,21 +1161,21 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1197,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1211,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1222,10 +1214,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1239,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1250,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>

--- a/ISORC2017/evaluation/ExecutionTime.xlsx
+++ b/ISORC2017/evaluation/ExecutionTime.xlsx
@@ -4,22 +4,40 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3:$A$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1:$B$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$B$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1:$C$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$3:$C$11</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$3:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$615</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$615</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$2:$B$807</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$2:$C$703</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$2:$D$635</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$2:$A$807</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$2:$B$807</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$2:$C$807</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$2:$D$807</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$603</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$320</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$129:$D$479</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$807</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,29 +47,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>TINET</t>
+    <t/>
+  </si>
+  <si>
+    <t>TINET: tcp_rcv_dat</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TINET+TECS</t>
+    <t>TINET: tcp_snd_dat</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tcp_snd_dat</t>
+    <t>TINET+TECS: tcp_snd_dat</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tcp_rcv_dat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TINET</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TINET+TECS</t>
+    <t>TINET+TECS: tcp_rcv_dat</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -59,6 +72,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,8 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -119,33 +137,33 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{0987174D-96B3-4A7A-943A-04BFD98EE6C4}">
+        <cx:series layoutId="boxWhisker" uniqueId="{B2E26314-E5CD-4D1D-8BE6-C12FB436AC0B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>tcp_snd_dat TINET</cx:v>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>TINET: tcp_rcv_dat</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -154,11 +172,11 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{F7745AD1-1607-4BDD-A47A-928D90340C1D}">
+        <cx:series layoutId="boxWhisker" uniqueId="{CA94F759-E440-4640-8F6E-C938291A0D15}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>tcp_snd_dat TINET+TECS</cx:v>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>TINET+TECS: tcp_rcv_dat</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -167,11 +185,11 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{4F2193FF-62CA-4DE7-961B-4AD846D669F2}">
+        <cx:series layoutId="boxWhisker" uniqueId="{A2D9A484-9E9C-4AD7-96BC-2E536E909179}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>tcp_rcv_dat TINET</cx:v>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>TINET: tcp_snd_dat</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="2"/>
@@ -180,11 +198,11 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{8361D057-A41F-4F19-A2EB-6B74CF3911FB}">
+        <cx:series layoutId="boxWhisker" uniqueId="{D618637B-0F33-4741-8CD3-FC8875E8ABE6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>tcp_rcv_dat TINET+TECS</cx:v>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>TINET+TECS: tcp_snd_dat</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="3"/>
@@ -200,24 +218,30 @@
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Execution time [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
   </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
 </cx:chartSpace>
 </file>
 
@@ -751,22 +775,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="グラフ 1"/>
+            <xdr:cNvPr id="3" name="グラフ 2"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1083,172 +1107,8094 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:O615"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>63</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>2632</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>63</v>
+      </c>
+      <c r="O4" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>2632</v>
+      </c>
+      <c r="O5" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>82</v>
+      </c>
+      <c r="O6" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>3599</v>
+      </c>
+      <c r="O7" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>82</v>
+      </c>
+      <c r="O8" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>3599</v>
+      </c>
+      <c r="O9" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>52068</v>
+      </c>
+      <c r="O10" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>149</v>
+      </c>
+      <c r="O11" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>52068</v>
+      </c>
+      <c r="O12" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>149</v>
+      </c>
+      <c r="O13" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>18</v>
+      </c>
+      <c r="O14" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>18</v>
+      </c>
+      <c r="O15" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>34612</v>
+      </c>
+      <c r="O16" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <v>34612</v>
+      </c>
+      <c r="O17" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <v>19</v>
+      </c>
+      <c r="O18" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <v>19</v>
+      </c>
+      <c r="O19" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>25</v>
+      </c>
+      <c r="O20" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2">
+        <v>32</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>25</v>
+      </c>
+      <c r="O21" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
+        <v>62946</v>
+      </c>
+      <c r="O22" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>62946</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
+        <v>32</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <v>17</v>
+      </c>
+      <c r="O24" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2">
+        <v>32</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <v>17</v>
+      </c>
+      <c r="O25" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2">
+        <v>32</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>22</v>
+      </c>
+      <c r="O26" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2">
+        <v>32</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <v>22</v>
+      </c>
+      <c r="O27" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2">
+        <v>32</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
+        <v>63302</v>
+      </c>
+      <c r="O28" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
+        <v>32</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <v>63302</v>
+      </c>
+      <c r="O29" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>11</v>
+      </c>
+      <c r="B30" s="2">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2">
+        <v>32</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
+        <v>17</v>
+      </c>
+      <c r="O30" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2">
+        <v>31</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2">
+        <v>17</v>
+      </c>
+      <c r="O31" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2">
+        <v>26</v>
+      </c>
+      <c r="D32" s="2">
+        <v>31</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>16</v>
+      </c>
+      <c r="O32" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2">
+        <v>31</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2">
+        <v>16</v>
+      </c>
+      <c r="O33" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2">
+        <v>26</v>
+      </c>
+      <c r="D34" s="2">
+        <v>31</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>20</v>
+      </c>
+      <c r="O34" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2">
+        <v>30</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2">
+        <v>20</v>
+      </c>
+      <c r="O35" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2">
+        <v>26</v>
+      </c>
+      <c r="D36" s="2">
+        <v>30</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2">
+        <v>63853</v>
+      </c>
+      <c r="O36" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2">
+        <v>17</v>
+      </c>
+      <c r="C37" s="2">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2">
+        <v>30</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2">
+        <v>63853</v>
+      </c>
+      <c r="O37" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2">
+        <v>26</v>
+      </c>
+      <c r="D38" s="2">
+        <v>30</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2">
+        <v>16</v>
+      </c>
+      <c r="O38" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2">
+        <v>26</v>
+      </c>
+      <c r="D39" s="2">
+        <v>31</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2">
+        <v>16</v>
+      </c>
+      <c r="O39" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2">
+        <v>14</v>
+      </c>
+      <c r="C40" s="2">
+        <v>26</v>
+      </c>
+      <c r="D40" s="2">
+        <v>31</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
+        <v>17</v>
+      </c>
+      <c r="O40" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2">
+        <v>26</v>
+      </c>
+      <c r="D41" s="2">
+        <v>30</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2">
+        <v>17</v>
+      </c>
+      <c r="O41" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>11</v>
+      </c>
+      <c r="B42" s="2">
+        <v>14</v>
+      </c>
+      <c r="C42" s="2">
+        <v>26</v>
+      </c>
+      <c r="D42" s="2">
+        <v>30</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2">
+        <v>15</v>
+      </c>
+      <c r="O42" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2">
+        <v>26</v>
+      </c>
+      <c r="D43" s="2">
+        <v>31</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2">
+        <v>15</v>
+      </c>
+      <c r="O43" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>21</v>
+      </c>
+      <c r="B44" s="2">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2">
+        <v>26</v>
+      </c>
+      <c r="D44" s="2">
+        <v>31</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2">
+        <v>16</v>
+      </c>
+      <c r="O44" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>21</v>
+      </c>
+      <c r="B45" s="2">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2">
+        <v>26</v>
+      </c>
+      <c r="D45" s="2">
+        <v>30</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2">
+        <v>16</v>
+      </c>
+      <c r="O45" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2">
+        <v>26</v>
+      </c>
+      <c r="D46" s="2">
+        <v>30</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2">
+        <v>62626</v>
+      </c>
+      <c r="O46" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2">
+        <v>26</v>
+      </c>
+      <c r="D47" s="2">
+        <v>31</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2">
+        <v>62626</v>
+      </c>
+      <c r="O47" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2">
+        <v>24</v>
+      </c>
+      <c r="C48" s="2">
+        <v>26</v>
+      </c>
+      <c r="D48" s="2">
+        <v>31</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2">
+        <v>16</v>
+      </c>
+      <c r="O48" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2">
+        <v>24</v>
+      </c>
+      <c r="C49" s="2">
+        <v>26</v>
+      </c>
+      <c r="D49" s="2">
+        <v>29</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2">
+        <v>16</v>
+      </c>
+      <c r="O49" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2">
+        <v>17</v>
+      </c>
+      <c r="C50" s="2">
+        <v>26</v>
+      </c>
+      <c r="D50" s="2">
+        <v>29</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2">
+        <v>15</v>
+      </c>
+      <c r="O50" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2">
+        <v>17</v>
+      </c>
+      <c r="C51" s="2">
+        <v>26</v>
+      </c>
+      <c r="D51" s="2">
+        <v>29</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2">
+        <v>15</v>
+      </c>
+      <c r="O51" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>14</v>
+      </c>
+      <c r="B52" s="2">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2">
+        <v>26</v>
+      </c>
+      <c r="D52" s="2">
+        <v>29</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2">
+        <v>17</v>
+      </c>
+      <c r="O52" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>14</v>
+      </c>
+      <c r="B53" s="2">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2">
+        <v>26</v>
+      </c>
+      <c r="D53" s="2">
+        <v>29</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2">
+        <v>17</v>
+      </c>
+      <c r="O53" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>12</v>
+      </c>
+      <c r="B54" s="2">
+        <v>14</v>
+      </c>
+      <c r="C54" s="2">
+        <v>26</v>
+      </c>
+      <c r="D54" s="2">
+        <v>29</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2">
+        <v>63256</v>
+      </c>
+      <c r="O54" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2">
+        <v>14</v>
+      </c>
+      <c r="C55" s="2">
+        <v>26</v>
+      </c>
+      <c r="D55" s="2">
+        <v>28</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2">
+        <v>63256</v>
+      </c>
+      <c r="O55" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>11</v>
+      </c>
+      <c r="B56" s="2">
+        <v>14</v>
+      </c>
+      <c r="C56" s="2">
+        <v>26</v>
+      </c>
+      <c r="D56" s="2">
+        <v>28</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2">
+        <v>16</v>
+      </c>
+      <c r="O56" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>11</v>
+      </c>
+      <c r="B57" s="2">
+        <v>14</v>
+      </c>
+      <c r="C57" s="2">
+        <v>26</v>
+      </c>
+      <c r="D57" s="2">
+        <v>30</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2">
+        <v>16</v>
+      </c>
+      <c r="O57" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>10</v>
+      </c>
+      <c r="B58" s="2">
+        <v>22</v>
+      </c>
+      <c r="C58" s="2">
+        <v>26</v>
+      </c>
+      <c r="D58" s="2">
+        <v>30</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2">
+        <v>16</v>
+      </c>
+      <c r="O58" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>10</v>
+      </c>
+      <c r="B59" s="2">
+        <v>22</v>
+      </c>
+      <c r="C59" s="2">
+        <v>26</v>
+      </c>
+      <c r="D59" s="2">
+        <v>29</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2">
+        <v>16</v>
+      </c>
+      <c r="O59" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>24</v>
+      </c>
+      <c r="B60" s="2">
+        <v>20</v>
+      </c>
+      <c r="C60" s="2">
+        <v>26</v>
+      </c>
+      <c r="D60" s="2">
+        <v>29</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2">
+        <v>18</v>
+      </c>
+      <c r="O60" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>24</v>
+      </c>
+      <c r="B61" s="2">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2">
+        <v>28</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2">
+        <v>18</v>
+      </c>
+      <c r="O61" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>10</v>
+      </c>
+      <c r="B62" s="2">
+        <v>18</v>
+      </c>
+      <c r="C62" s="2">
+        <v>26</v>
+      </c>
+      <c r="D62" s="2">
+        <v>28</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2">
+        <v>10469</v>
+      </c>
+      <c r="O62" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>10</v>
+      </c>
+      <c r="B63" s="2">
+        <v>18</v>
+      </c>
+      <c r="C63" s="2">
+        <v>26</v>
+      </c>
+      <c r="D63" s="2">
+        <v>29</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2">
+        <v>10469</v>
+      </c>
+      <c r="O63" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>19</v>
+      </c>
+      <c r="B64" s="2">
+        <v>14</v>
+      </c>
+      <c r="C64" s="2">
+        <v>26</v>
+      </c>
+      <c r="D64" s="2">
+        <v>29</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2">
+        <v>15</v>
+      </c>
+      <c r="O64" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>19</v>
+      </c>
+      <c r="B65" s="2">
+        <v>14</v>
+      </c>
+      <c r="C65" s="2">
+        <v>26</v>
+      </c>
+      <c r="D65" s="2">
+        <v>30</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2">
+        <v>15</v>
+      </c>
+      <c r="O65" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>11</v>
+      </c>
+      <c r="B66" s="2">
+        <v>14</v>
+      </c>
+      <c r="C66" s="2">
+        <v>26</v>
+      </c>
+      <c r="D66" s="2">
+        <v>30</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2">
+        <v>24</v>
+      </c>
+      <c r="O66" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>11</v>
+      </c>
+      <c r="B67" s="2">
+        <v>14</v>
+      </c>
+      <c r="C67" s="2">
+        <v>26</v>
+      </c>
+      <c r="D67" s="2">
+        <v>28</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2">
+        <v>24</v>
+      </c>
+      <c r="O67" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>10</v>
+      </c>
+      <c r="B68" s="2">
+        <v>14</v>
+      </c>
+      <c r="C68" s="2">
+        <v>26</v>
+      </c>
+      <c r="D68" s="2">
+        <v>28</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2">
+        <v>9</v>
+      </c>
+      <c r="O68" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>10</v>
+      </c>
+      <c r="B69" s="2">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2">
+        <v>30</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2">
+        <v>9</v>
+      </c>
+      <c r="O69" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>11</v>
+      </c>
+      <c r="B70" s="2">
+        <v>13</v>
+      </c>
+      <c r="C70" s="2">
+        <v>25</v>
+      </c>
+      <c r="D70" s="2">
+        <v>30</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2">
+        <v>63</v>
+      </c>
+      <c r="O70" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2">
+        <v>13</v>
+      </c>
+      <c r="C71" s="2">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2">
+        <v>28</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2">
+        <v>2593</v>
+      </c>
+      <c r="O71" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>10</v>
+      </c>
+      <c r="B72" s="2">
+        <v>25</v>
+      </c>
+      <c r="C72" s="2">
+        <v>25</v>
+      </c>
+      <c r="D72" s="2">
+        <v>28</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2">
+        <v>63</v>
+      </c>
+      <c r="O72" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>10</v>
+      </c>
+      <c r="B73" s="2">
+        <v>25</v>
+      </c>
+      <c r="C73" s="2">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2">
+        <v>29</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2">
+        <v>2593</v>
+      </c>
+      <c r="O73" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>11</v>
+      </c>
+      <c r="B74" s="2">
+        <v>22</v>
+      </c>
+      <c r="C74" s="2">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2">
+        <v>29</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2">
+        <v>83</v>
+      </c>
+      <c r="O74" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>11</v>
+      </c>
+      <c r="B75" s="2">
+        <v>22</v>
+      </c>
+      <c r="C75" s="2">
+        <v>25</v>
+      </c>
+      <c r="D75" s="2">
+        <v>28</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2">
+        <v>83</v>
+      </c>
+      <c r="O75" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>10</v>
+      </c>
+      <c r="B76" s="2">
+        <v>21</v>
+      </c>
+      <c r="C76" s="2">
+        <v>25</v>
+      </c>
+      <c r="D76" s="2">
+        <v>28</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2">
+        <v>3567</v>
+      </c>
+      <c r="O76" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>10</v>
+      </c>
+      <c r="B77" s="2">
+        <v>21</v>
+      </c>
+      <c r="C77" s="2">
+        <v>25</v>
+      </c>
+      <c r="D77" s="2">
+        <v>29</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2">
+        <v>3567</v>
+      </c>
+      <c r="O77" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>10</v>
+      </c>
+      <c r="B78" s="2">
+        <v>20</v>
+      </c>
+      <c r="C78" s="2">
+        <v>25</v>
+      </c>
+      <c r="D78" s="2">
+        <v>29</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2">
+        <v>31712</v>
+      </c>
+      <c r="O78" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>10</v>
+      </c>
+      <c r="B79" s="2">
+        <v>20</v>
+      </c>
+      <c r="C79" s="2">
+        <v>25</v>
+      </c>
+      <c r="D79" s="2">
+        <v>28</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2">
+        <v>15</v>
+      </c>
+      <c r="O79" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>21</v>
+      </c>
+      <c r="B80" s="2">
+        <v>17</v>
+      </c>
+      <c r="C80" s="2">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2">
+        <v>28</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2">
+        <v>31712</v>
+      </c>
+      <c r="O80" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>21</v>
+      </c>
+      <c r="B81" s="2">
+        <v>17</v>
+      </c>
+      <c r="C81" s="2">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2">
+        <v>29</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2">
+        <v>15</v>
+      </c>
+      <c r="O81" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>12</v>
+      </c>
+      <c r="B82" s="2">
+        <v>16</v>
+      </c>
+      <c r="C82" s="2">
+        <v>25</v>
+      </c>
+      <c r="D82" s="2">
+        <v>29</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2">
+        <v>18</v>
+      </c>
+      <c r="O82" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>12</v>
+      </c>
+      <c r="B83" s="2">
+        <v>16</v>
+      </c>
+      <c r="C83" s="2">
+        <v>25</v>
+      </c>
+      <c r="D83" s="2">
+        <v>28</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2">
+        <v>18</v>
+      </c>
+      <c r="O83" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <v>10</v>
+      </c>
+      <c r="B84" s="2">
+        <v>16</v>
+      </c>
+      <c r="C84" s="2">
+        <v>25</v>
+      </c>
+      <c r="D84" s="2">
+        <v>28</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2">
+        <v>35198</v>
+      </c>
+      <c r="O84" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A85" s="2">
+        <v>10</v>
+      </c>
+      <c r="B85" s="2">
+        <v>16</v>
+      </c>
+      <c r="C85" s="2">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2">
+        <v>29</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2">
+        <v>35198</v>
+      </c>
+      <c r="O85" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A86" s="2">
+        <v>11</v>
+      </c>
+      <c r="B86" s="2">
+        <v>15</v>
+      </c>
+      <c r="C86" s="2">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2">
+        <v>29</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2">
+        <v>24</v>
+      </c>
+      <c r="O86" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A87" s="2">
+        <v>11</v>
+      </c>
+      <c r="B87" s="2">
+        <v>15</v>
+      </c>
+      <c r="C87" s="2">
+        <v>25</v>
+      </c>
+      <c r="D87" s="2">
+        <v>29</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2">
+        <v>24</v>
+      </c>
+      <c r="O87" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A88" s="2">
+        <v>10</v>
+      </c>
+      <c r="B88" s="2">
+        <v>15</v>
+      </c>
+      <c r="C88" s="2">
+        <v>25</v>
+      </c>
+      <c r="D88" s="2">
+        <v>29</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2">
+        <v>12082</v>
+      </c>
+      <c r="O88" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A89" s="2">
+        <v>10</v>
+      </c>
+      <c r="B89" s="2">
+        <v>15</v>
+      </c>
+      <c r="C89" s="2">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2">
+        <v>29</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2">
+        <v>12082</v>
+      </c>
+      <c r="O89" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A90" s="2">
+        <v>9</v>
+      </c>
+      <c r="B90" s="2">
+        <v>15</v>
+      </c>
+      <c r="C90" s="2">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2">
+        <v>29</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2">
+        <v>15</v>
+      </c>
+      <c r="O90" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A91" s="2">
+        <v>9</v>
+      </c>
+      <c r="B91" s="2">
+        <v>15</v>
+      </c>
+      <c r="C91" s="2">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2">
+        <v>29</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2">
+        <v>15</v>
+      </c>
+      <c r="O91" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
+        <v>11</v>
+      </c>
+      <c r="B92" s="2">
+        <v>14</v>
+      </c>
+      <c r="C92" s="2">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2">
+        <v>29</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2">
+        <v>18</v>
+      </c>
+      <c r="O92" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <v>11</v>
+      </c>
+      <c r="B93" s="2">
+        <v>14</v>
+      </c>
+      <c r="C93" s="2">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2">
+        <v>29</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2">
+        <v>18</v>
+      </c>
+      <c r="O93" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A94" s="2">
+        <v>10</v>
+      </c>
+      <c r="B94" s="2">
+        <v>13</v>
+      </c>
+      <c r="C94" s="2">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2">
+        <v>29</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2">
+        <v>25309</v>
+      </c>
+      <c r="O94" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A95" s="2">
+        <v>10</v>
+      </c>
+      <c r="B95" s="2">
+        <v>13</v>
+      </c>
+      <c r="C95" s="2">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2">
+        <v>28</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2">
+        <v>25309</v>
+      </c>
+      <c r="O95" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A96" s="2">
+        <v>16</v>
+      </c>
+      <c r="B96" s="2">
+        <v>13</v>
+      </c>
+      <c r="C96" s="2">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2">
+        <v>28</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2">
+        <v>16</v>
+      </c>
+      <c r="O96" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A97" s="2">
+        <v>16</v>
+      </c>
+      <c r="B97" s="2">
+        <v>13</v>
+      </c>
+      <c r="C97" s="2">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2">
+        <v>26</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2">
+        <v>16</v>
+      </c>
+      <c r="O97" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A98" s="2">
+        <v>11</v>
+      </c>
+      <c r="B98" s="2">
+        <v>24</v>
+      </c>
+      <c r="C98" s="2">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2">
+        <v>26</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2">
+        <v>18</v>
+      </c>
+      <c r="O98" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A99" s="2">
+        <v>11</v>
+      </c>
+      <c r="B99" s="2">
+        <v>24</v>
+      </c>
+      <c r="C99" s="2">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2">
+        <v>26</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2">
+        <v>18</v>
+      </c>
+      <c r="O99" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A100" s="2">
+        <v>10</v>
+      </c>
+      <c r="B100" s="2">
+        <v>20</v>
+      </c>
+      <c r="C100" s="2">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2">
+        <v>26</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2">
+        <v>63955</v>
+      </c>
+      <c r="O100" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A101" s="2">
+        <v>10</v>
+      </c>
+      <c r="B101" s="2">
+        <v>20</v>
+      </c>
+      <c r="C101" s="2">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2">
+        <v>26</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2">
+        <v>63955</v>
+      </c>
+      <c r="O101" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A102" s="2">
+        <v>12</v>
+      </c>
+      <c r="B102" s="2">
+        <v>20</v>
+      </c>
+      <c r="C102" s="2">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2">
+        <v>26</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2">
+        <v>16</v>
+      </c>
+      <c r="O102" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A103" s="2">
+        <v>12</v>
+      </c>
+      <c r="B103" s="2">
+        <v>20</v>
+      </c>
+      <c r="C103" s="2">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2">
+        <v>28</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2">
+        <v>16</v>
+      </c>
+      <c r="O103" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A104" s="2">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2">
+        <v>19</v>
+      </c>
+      <c r="C104" s="2">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2">
+        <v>28</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2">
+        <v>17</v>
+      </c>
+      <c r="O104" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
+        <v>9</v>
+      </c>
+      <c r="B105" s="2">
+        <v>19</v>
+      </c>
+      <c r="C105" s="2">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2">
+        <v>26</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2">
+        <v>17</v>
+      </c>
+      <c r="O105" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A106" s="2">
+        <v>10</v>
+      </c>
+      <c r="B106" s="2">
+        <v>16</v>
+      </c>
+      <c r="C106" s="2">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2">
+        <v>26</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2">
+        <v>63440</v>
+      </c>
+      <c r="O106" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A107" s="2">
+        <v>10</v>
+      </c>
+      <c r="B107" s="2">
+        <v>16</v>
+      </c>
+      <c r="C107" s="2">
+        <v>25</v>
+      </c>
+      <c r="D107" s="2">
+        <v>26</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2">
+        <v>63440</v>
+      </c>
+      <c r="O107" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A108" s="2">
+        <v>15</v>
+      </c>
+      <c r="B108" s="2">
+        <v>15</v>
+      </c>
+      <c r="C108" s="2">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2">
+        <v>26</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2">
+        <v>19</v>
+      </c>
+      <c r="O108" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A109" s="2">
+        <v>15</v>
+      </c>
+      <c r="B109" s="2">
+        <v>15</v>
+      </c>
+      <c r="C109" s="2">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2">
+        <v>27</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2">
+        <v>19</v>
+      </c>
+      <c r="O109" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A110" s="2">
+        <v>10</v>
+      </c>
+      <c r="B110" s="2">
+        <v>15</v>
+      </c>
+      <c r="C110" s="2">
+        <v>25</v>
+      </c>
+      <c r="D110" s="2">
+        <v>27</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2">
+        <v>20849</v>
+      </c>
+      <c r="O110" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A111" s="2">
+        <v>10</v>
+      </c>
+      <c r="B111" s="2">
+        <v>15</v>
+      </c>
+      <c r="C111" s="2">
+        <v>25</v>
+      </c>
+      <c r="D111" s="2">
+        <v>27</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2">
+        <v>20849</v>
+      </c>
+      <c r="O111" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A112" s="2">
+        <v>10</v>
+      </c>
+      <c r="B112" s="2">
+        <v>15</v>
+      </c>
+      <c r="C112" s="2">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2">
+        <v>27</v>
+      </c>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2">
+        <v>15</v>
+      </c>
+      <c r="O112" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A113" s="2">
+        <v>10</v>
+      </c>
+      <c r="B113" s="2">
+        <v>15</v>
+      </c>
+      <c r="C113" s="2">
+        <v>25</v>
+      </c>
+      <c r="D113" s="2">
+        <v>26</v>
+      </c>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2">
+        <v>15</v>
+      </c>
+      <c r="O113" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A114" s="2">
+        <v>11</v>
+      </c>
+      <c r="B114" s="2">
+        <v>15</v>
+      </c>
+      <c r="C114" s="2">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2">
+        <v>26</v>
+      </c>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2">
+        <v>17</v>
+      </c>
+      <c r="O114" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A115" s="2">
+        <v>11</v>
+      </c>
+      <c r="B115" s="2">
+        <v>15</v>
+      </c>
+      <c r="C115" s="2">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2">
+        <v>27</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2">
+        <v>17</v>
+      </c>
+      <c r="O115" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A116" s="2">
+        <v>20</v>
+      </c>
+      <c r="B116" s="2">
+        <v>15</v>
+      </c>
+      <c r="C116" s="2">
+        <v>25</v>
+      </c>
+      <c r="D116" s="2">
+        <v>27</v>
+      </c>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2">
+        <v>63173</v>
+      </c>
+      <c r="O116" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A117" s="2">
+        <v>20</v>
+      </c>
+      <c r="B117" s="2">
+        <v>15</v>
+      </c>
+      <c r="C117" s="2">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2">
+        <v>27</v>
+      </c>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2">
+        <v>63173</v>
+      </c>
+      <c r="O117" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A118" s="2">
+        <v>11</v>
+      </c>
+      <c r="B118" s="2">
+        <v>15</v>
+      </c>
+      <c r="C118" s="2">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2">
+        <v>27</v>
+      </c>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2">
+        <v>15</v>
+      </c>
+      <c r="O118" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A119" s="2">
+        <v>11</v>
+      </c>
+      <c r="B119" s="2">
+        <v>15</v>
+      </c>
+      <c r="C119" s="2">
+        <v>25</v>
+      </c>
+      <c r="D119" s="2">
+        <v>27</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2">
+        <v>15</v>
+      </c>
+      <c r="O119" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A120" s="2">
+        <v>18</v>
+      </c>
+      <c r="B120" s="2">
+        <v>15</v>
+      </c>
+      <c r="C120" s="2">
+        <v>25</v>
+      </c>
+      <c r="D120" s="2">
+        <v>27</v>
+      </c>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2">
+        <v>24</v>
+      </c>
+      <c r="O120" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A121" s="2">
+        <v>18</v>
+      </c>
+      <c r="B121" s="2">
+        <v>15</v>
+      </c>
+      <c r="C121" s="2">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2">
+        <v>27</v>
+      </c>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2">
+        <v>24</v>
+      </c>
+      <c r="O121" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A122" s="2">
+        <v>17</v>
+      </c>
+      <c r="B122" s="2">
+        <v>15</v>
+      </c>
+      <c r="C122" s="2">
+        <v>25</v>
+      </c>
+      <c r="D122" s="2">
+        <v>27</v>
+      </c>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2">
+        <v>9</v>
+      </c>
+      <c r="O122" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A123" s="2">
+        <v>17</v>
+      </c>
+      <c r="B123" s="2">
+        <v>15</v>
+      </c>
+      <c r="C123" s="2">
+        <v>25</v>
+      </c>
+      <c r="D123" s="2">
+        <v>26</v>
+      </c>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2">
+        <v>9</v>
+      </c>
+      <c r="O123" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A124" s="2">
+        <v>12</v>
+      </c>
+      <c r="B124" s="2">
+        <v>14</v>
+      </c>
+      <c r="C124" s="2">
+        <v>25</v>
+      </c>
+      <c r="D124" s="2">
+        <v>26</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2">
+        <v>62</v>
+      </c>
+      <c r="O124" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A125" s="2">
+        <v>12</v>
+      </c>
+      <c r="B125" s="2">
+        <v>14</v>
+      </c>
+      <c r="C125" s="2">
+        <v>25</v>
+      </c>
+      <c r="D125" s="2">
+        <v>26</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2">
+        <v>2677</v>
+      </c>
+      <c r="O125" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A126" s="2">
+        <v>10</v>
+      </c>
+      <c r="B126" s="2">
+        <v>14</v>
+      </c>
+      <c r="C126" s="2">
+        <v>25</v>
+      </c>
+      <c r="D126" s="2">
+        <v>26</v>
+      </c>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2">
+        <v>62</v>
+      </c>
+      <c r="O126" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A127" s="2">
+        <v>10</v>
+      </c>
+      <c r="B127" s="2">
+        <v>14</v>
+      </c>
+      <c r="C127" s="2">
+        <v>25</v>
+      </c>
+      <c r="D127" s="2">
+        <v>26</v>
+      </c>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2">
+        <v>2677</v>
+      </c>
+      <c r="O127" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A128" s="2">
+        <v>12</v>
+      </c>
+      <c r="B128" s="2">
+        <v>14</v>
+      </c>
+      <c r="C128" s="2">
+        <v>25</v>
+      </c>
+      <c r="D128" s="2">
+        <v>26</v>
+      </c>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2">
+        <v>83</v>
+      </c>
+      <c r="O128" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A129" s="2">
+        <v>12</v>
+      </c>
+      <c r="B129" s="2">
+        <v>14</v>
+      </c>
+      <c r="C129" s="2">
+        <v>25</v>
+      </c>
+      <c r="D129" s="2">
+        <v>27</v>
+      </c>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2">
+        <v>3580</v>
+      </c>
+      <c r="O129" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A130" s="2">
+        <v>11</v>
+      </c>
+      <c r="B130" s="2">
+        <v>14</v>
+      </c>
+      <c r="C130" s="2">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2">
+        <v>27</v>
+      </c>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2">
+        <v>83</v>
+      </c>
+      <c r="O130" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A131" s="2">
+        <v>11</v>
+      </c>
+      <c r="B131" s="2">
+        <v>14</v>
+      </c>
+      <c r="C131" s="2">
+        <v>25</v>
+      </c>
+      <c r="D131" s="2">
+        <v>35</v>
+      </c>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2">
+        <v>3580</v>
+      </c>
+      <c r="O131" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A132" s="2">
+        <v>11</v>
+      </c>
+      <c r="B132" s="2">
+        <v>13</v>
+      </c>
+      <c r="C132" s="2">
+        <v>25</v>
+      </c>
+      <c r="D132" s="2">
+        <v>35</v>
+      </c>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2">
+        <v>55707</v>
+      </c>
+      <c r="O132" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A133" s="2">
+        <v>11</v>
+      </c>
+      <c r="B133" s="2">
+        <v>13</v>
+      </c>
+      <c r="C133" s="2">
+        <v>25</v>
+      </c>
+      <c r="D133" s="2">
+        <v>29</v>
+      </c>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2">
+        <v>650</v>
+      </c>
+      <c r="O133" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A134" s="2">
+        <v>16</v>
+      </c>
+      <c r="B134" s="2">
+        <v>19</v>
+      </c>
+      <c r="C134" s="2">
+        <v>25</v>
+      </c>
+      <c r="D134" s="2">
+        <v>29</v>
+      </c>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2">
+        <v>55707</v>
+      </c>
+      <c r="O134" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A135" s="2">
+        <v>16</v>
+      </c>
+      <c r="B135" s="2">
+        <v>19</v>
+      </c>
+      <c r="C135" s="2">
+        <v>25</v>
+      </c>
+      <c r="D135" s="2">
+        <v>27</v>
+      </c>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2">
+        <v>650</v>
+      </c>
+      <c r="O135" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A136" s="2">
+        <v>10</v>
+      </c>
+      <c r="B136" s="2">
+        <v>16</v>
+      </c>
+      <c r="C136" s="2">
+        <v>25</v>
+      </c>
+      <c r="D136" s="2">
+        <v>27</v>
+      </c>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2">
+        <v>17</v>
+      </c>
+      <c r="O136" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A137" s="2">
+        <v>10</v>
+      </c>
+      <c r="B137" s="2">
+        <v>16</v>
+      </c>
+      <c r="C137" s="2">
+        <v>24</v>
+      </c>
+      <c r="D137" s="2">
+        <v>27</v>
+      </c>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2">
+        <v>17</v>
+      </c>
+      <c r="O137" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A138" s="2">
+        <v>11</v>
+      </c>
+      <c r="B138" s="2">
+        <v>15</v>
+      </c>
+      <c r="C138" s="2">
+        <v>24</v>
+      </c>
+      <c r="D138" s="2">
+        <v>27</v>
+      </c>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2">
+        <v>52730</v>
+      </c>
+      <c r="O138" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A139" s="2">
+        <v>11</v>
+      </c>
+      <c r="B139" s="2">
+        <v>15</v>
+      </c>
+      <c r="C139" s="2">
+        <v>24</v>
+      </c>
+      <c r="D139" s="2">
+        <v>25</v>
+      </c>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2">
+        <v>52730</v>
+      </c>
+      <c r="O139" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A140" s="2">
+        <v>10</v>
+      </c>
+      <c r="B140" s="2">
+        <v>15</v>
+      </c>
+      <c r="C140" s="2">
+        <v>24</v>
+      </c>
+      <c r="D140" s="2">
+        <v>25</v>
+      </c>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2">
+        <v>16</v>
+      </c>
+      <c r="O140" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A141" s="2">
+        <v>10</v>
+      </c>
+      <c r="B141" s="2">
+        <v>15</v>
+      </c>
+      <c r="C141" s="2">
+        <v>24</v>
+      </c>
+      <c r="D141" s="2">
+        <v>24</v>
+      </c>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2">
+        <v>16</v>
+      </c>
+      <c r="O141" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A142" s="2">
+        <v>15</v>
+      </c>
+      <c r="B142" s="2">
+        <v>15</v>
+      </c>
+      <c r="C142" s="2">
+        <v>24</v>
+      </c>
+      <c r="D142" s="2">
+        <v>24</v>
+      </c>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2">
+        <v>63170</v>
+      </c>
+      <c r="O142" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A143" s="2">
+        <v>15</v>
+      </c>
+      <c r="B143" s="2">
+        <v>15</v>
+      </c>
+      <c r="C143" s="2">
+        <v>24</v>
+      </c>
+      <c r="D143" s="2">
+        <v>25</v>
+      </c>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2">
+        <v>63170</v>
+      </c>
+      <c r="O143" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A144" s="2">
+        <v>11</v>
+      </c>
+      <c r="B144" s="2">
+        <v>14</v>
+      </c>
+      <c r="C144" s="2">
+        <v>24</v>
+      </c>
+      <c r="D144" s="2">
+        <v>25</v>
+      </c>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2">
+        <v>15</v>
+      </c>
+      <c r="O144" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A145" s="2">
+        <v>11</v>
+      </c>
+      <c r="B145" s="2">
+        <v>14</v>
+      </c>
+      <c r="C145" s="2">
+        <v>24</v>
+      </c>
+      <c r="D145" s="2">
+        <v>25</v>
+      </c>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2">
+        <v>15</v>
+      </c>
+      <c r="O145" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A146" s="2">
+        <v>12</v>
+      </c>
+      <c r="B146" s="2">
+        <v>14</v>
+      </c>
+      <c r="C146" s="2">
+        <v>24</v>
+      </c>
+      <c r="D146" s="2">
+        <v>25</v>
+      </c>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2">
+        <v>16</v>
+      </c>
+      <c r="O146" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A147" s="2">
+        <v>12</v>
+      </c>
+      <c r="B147" s="2">
+        <v>14</v>
+      </c>
+      <c r="C147" s="2">
+        <v>24</v>
+      </c>
+      <c r="D147" s="2">
+        <v>25</v>
+      </c>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2">
+        <v>16</v>
+      </c>
+      <c r="O147" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A148" s="2">
+        <v>11</v>
+      </c>
+      <c r="B148" s="2">
+        <v>14</v>
+      </c>
+      <c r="C148" s="2">
+        <v>24</v>
+      </c>
+      <c r="D148" s="2">
+        <v>25</v>
+      </c>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2">
+        <v>63839</v>
+      </c>
+      <c r="O148" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A149" s="2">
+        <v>11</v>
+      </c>
+      <c r="B149" s="2">
+        <v>14</v>
+      </c>
+      <c r="C149" s="2">
+        <v>24</v>
+      </c>
+      <c r="D149" s="2">
+        <v>24</v>
+      </c>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2">
+        <v>63839</v>
+      </c>
+      <c r="O149" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A150" s="2">
+        <v>11</v>
+      </c>
+      <c r="B150" s="2">
+        <v>13</v>
+      </c>
+      <c r="C150" s="2">
+        <v>24</v>
+      </c>
+      <c r="D150" s="2">
+        <v>24</v>
+      </c>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2">
+        <v>15</v>
+      </c>
+      <c r="O150" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A151" s="2">
+        <v>11</v>
+      </c>
+      <c r="B151" s="2">
+        <v>13</v>
+      </c>
+      <c r="C151" s="2">
+        <v>24</v>
+      </c>
+      <c r="D151" s="2">
+        <v>24</v>
+      </c>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2">
+        <v>15</v>
+      </c>
+      <c r="O151" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A152" s="2">
+        <v>11</v>
+      </c>
+      <c r="B152" s="2">
+        <v>25</v>
+      </c>
+      <c r="C152" s="2">
+        <v>24</v>
+      </c>
+      <c r="D152" s="2">
+        <v>24</v>
+      </c>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2">
+        <v>16</v>
+      </c>
+      <c r="O152" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A153" s="2">
+        <v>11</v>
+      </c>
+      <c r="B153" s="2">
+        <v>25</v>
+      </c>
+      <c r="C153" s="2">
+        <v>24</v>
+      </c>
+      <c r="D153" s="2">
+        <v>24</v>
+      </c>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2">
+        <v>16</v>
+      </c>
+      <c r="O153" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A154" s="2">
+        <v>11</v>
+      </c>
+      <c r="B154" s="2">
+        <v>23</v>
+      </c>
+      <c r="C154" s="2">
+        <v>24</v>
+      </c>
+      <c r="D154" s="2">
+        <v>24</v>
+      </c>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2">
+        <v>16</v>
+      </c>
+      <c r="O154" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A155" s="2">
+        <v>11</v>
+      </c>
+      <c r="B155" s="2">
+        <v>23</v>
+      </c>
+      <c r="C155" s="2">
+        <v>24</v>
+      </c>
+      <c r="D155" s="2">
+        <v>24</v>
+      </c>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2">
+        <v>16</v>
+      </c>
+      <c r="O155" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A156" s="2">
+        <v>11</v>
+      </c>
+      <c r="B156" s="2">
+        <v>21</v>
+      </c>
+      <c r="C156" s="2">
+        <v>24</v>
+      </c>
+      <c r="D156" s="2">
+        <v>24</v>
+      </c>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2">
+        <v>811</v>
+      </c>
+      <c r="O156" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A157" s="2">
+        <v>11</v>
+      </c>
+      <c r="B157" s="2">
+        <v>21</v>
+      </c>
+      <c r="C157" s="2">
+        <v>24</v>
+      </c>
+      <c r="D157" s="2">
+        <v>24</v>
+      </c>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2">
+        <v>811</v>
+      </c>
+      <c r="O157" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A158" s="2">
+        <v>21</v>
+      </c>
+      <c r="B158" s="2">
+        <v>21</v>
+      </c>
+      <c r="C158" s="2">
+        <v>24</v>
+      </c>
+      <c r="D158" s="2">
+        <v>24</v>
+      </c>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2">
+        <v>22</v>
+      </c>
+      <c r="O158" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A159" s="2">
+        <v>21</v>
+      </c>
+      <c r="B159" s="2">
+        <v>21</v>
+      </c>
+      <c r="C159" s="2">
+        <v>24</v>
+      </c>
+      <c r="D159" s="2">
+        <v>25</v>
+      </c>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2">
+        <v>22</v>
+      </c>
+      <c r="O159" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A160" s="2">
+        <v>11</v>
+      </c>
+      <c r="B160" s="2">
+        <v>21</v>
+      </c>
+      <c r="C160" s="2">
+        <v>24</v>
+      </c>
+      <c r="D160" s="2">
+        <v>25</v>
+      </c>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2">
+        <v>21</v>
+      </c>
+      <c r="O160" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A161" s="2">
+        <v>11</v>
+      </c>
+      <c r="B161" s="2">
+        <v>21</v>
+      </c>
+      <c r="C161" s="2">
+        <v>24</v>
+      </c>
+      <c r="D161" s="2">
+        <v>24</v>
+      </c>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2">
+        <v>21</v>
+      </c>
+      <c r="O161" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A162" s="2">
+        <v>11</v>
+      </c>
+      <c r="B162" s="2">
+        <v>20</v>
+      </c>
+      <c r="C162" s="2">
+        <v>24</v>
+      </c>
+      <c r="D162" s="2">
+        <v>24</v>
+      </c>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2">
+        <v>16</v>
+      </c>
+      <c r="O162" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A163" s="2">
+        <v>11</v>
+      </c>
+      <c r="B163" s="2">
+        <v>20</v>
+      </c>
+      <c r="C163" s="2">
+        <v>24</v>
+      </c>
+      <c r="D163" s="2">
+        <v>25</v>
+      </c>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2">
+        <v>16</v>
+      </c>
+      <c r="O163" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A164" s="2">
+        <v>12</v>
+      </c>
+      <c r="B164" s="2">
+        <v>20</v>
+      </c>
+      <c r="C164" s="2">
+        <v>24</v>
+      </c>
+      <c r="D164" s="2">
+        <v>25</v>
+      </c>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2">
+        <v>6236</v>
+      </c>
+      <c r="O164" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A165" s="2">
+        <v>12</v>
+      </c>
+      <c r="B165" s="2">
+        <v>20</v>
+      </c>
+      <c r="C165" s="2">
+        <v>24</v>
+      </c>
+      <c r="D165" s="2">
+        <v>25</v>
+      </c>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2">
+        <v>6236</v>
+      </c>
+      <c r="O165" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A166" s="2">
+        <v>11</v>
+      </c>
+      <c r="B166" s="2">
+        <v>17</v>
+      </c>
+      <c r="C166" s="2">
+        <v>24</v>
+      </c>
+      <c r="D166" s="2">
+        <v>25</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2">
+        <v>23</v>
+      </c>
+      <c r="O166" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A167" s="2">
+        <v>11</v>
+      </c>
+      <c r="B167" s="2">
+        <v>17</v>
+      </c>
+      <c r="C167" s="2">
+        <v>24</v>
+      </c>
+      <c r="D167" s="2">
+        <v>25</v>
+      </c>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2">
+        <v>23</v>
+      </c>
+      <c r="O167" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A168" s="2">
+        <v>11</v>
+      </c>
+      <c r="B168" s="2">
+        <v>16</v>
+      </c>
+      <c r="C168" s="2">
+        <v>24</v>
+      </c>
+      <c r="D168" s="2">
+        <v>25</v>
+      </c>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2">
+        <v>18</v>
+      </c>
+      <c r="O168" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A169" s="2">
+        <v>11</v>
+      </c>
+      <c r="B169" s="2">
+        <v>16</v>
+      </c>
+      <c r="C169" s="2">
+        <v>24</v>
+      </c>
+      <c r="D169" s="2">
+        <v>24</v>
+      </c>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2">
+        <v>18</v>
+      </c>
+      <c r="O169" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A170" s="2">
+        <v>11</v>
+      </c>
+      <c r="B170" s="2">
+        <v>16</v>
+      </c>
+      <c r="C170" s="2">
+        <v>24</v>
+      </c>
+      <c r="D170" s="2">
+        <v>24</v>
+      </c>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2">
+        <v>34761</v>
+      </c>
+      <c r="O170" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A171" s="2">
+        <v>11</v>
+      </c>
+      <c r="B171" s="2">
+        <v>16</v>
+      </c>
+      <c r="C171" s="2">
+        <v>24</v>
+      </c>
+      <c r="D171" s="2">
+        <v>24</v>
+      </c>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2">
+        <v>34761</v>
+      </c>
+      <c r="O171" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A172" s="2">
+        <v>11</v>
+      </c>
+      <c r="B172" s="2">
+        <v>15</v>
+      </c>
+      <c r="C172" s="2">
+        <v>24</v>
+      </c>
+      <c r="D172" s="2">
+        <v>24</v>
+      </c>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2">
+        <v>27</v>
+      </c>
+      <c r="O172" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A173" s="2">
+        <v>11</v>
+      </c>
+      <c r="B173" s="2">
+        <v>15</v>
+      </c>
+      <c r="C173" s="2">
+        <v>24</v>
+      </c>
+      <c r="D173" s="2">
+        <v>24</v>
+      </c>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2">
+        <v>27</v>
+      </c>
+      <c r="O173" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A174" s="2">
+        <v>10</v>
+      </c>
+      <c r="B174" s="2">
+        <v>15</v>
+      </c>
+      <c r="C174" s="2">
+        <v>24</v>
+      </c>
+      <c r="D174" s="2">
+        <v>24</v>
+      </c>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2">
+        <v>18</v>
+      </c>
+      <c r="O174" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A175" s="2">
+        <v>10</v>
+      </c>
+      <c r="B175" s="2">
+        <v>15</v>
+      </c>
+      <c r="C175" s="2">
+        <v>24</v>
+      </c>
+      <c r="D175" s="2">
+        <v>24</v>
+      </c>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2">
+        <v>18</v>
+      </c>
+      <c r="O175" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A176" s="2">
+        <v>16</v>
+      </c>
+      <c r="B176" s="2">
+        <v>15</v>
+      </c>
+      <c r="C176" s="2">
+        <v>24</v>
+      </c>
+      <c r="D176" s="2">
+        <v>35</v>
+      </c>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2">
+        <v>47503</v>
+      </c>
+      <c r="O176" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A177" s="2">
+        <v>16</v>
+      </c>
+      <c r="B177" s="2">
+        <v>15</v>
+      </c>
+      <c r="C177" s="2">
+        <v>23</v>
+      </c>
+      <c r="D177" s="2">
+        <v>35</v>
+      </c>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2">
+        <v>47503</v>
+      </c>
+      <c r="O177" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A178" s="2">
+        <v>12</v>
+      </c>
+      <c r="B178" s="2">
+        <v>15</v>
+      </c>
+      <c r="C178" s="2">
+        <v>23</v>
+      </c>
+      <c r="D178" s="2">
+        <v>29</v>
+      </c>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2">
+        <v>15</v>
+      </c>
+      <c r="O178" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A179" s="2">
+        <v>12</v>
+      </c>
+      <c r="B179" s="2">
+        <v>15</v>
+      </c>
+      <c r="C179" s="2">
+        <v>23</v>
+      </c>
+      <c r="D179" s="2">
+        <v>29</v>
+      </c>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2">
+        <v>15</v>
+      </c>
+      <c r="O179" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A180" s="2">
+        <v>11</v>
+      </c>
+      <c r="B180" s="2">
+        <v>15</v>
+      </c>
+      <c r="C180" s="2">
+        <v>23</v>
+      </c>
+      <c r="D180" s="2">
+        <v>27</v>
+      </c>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2">
+        <v>17</v>
+      </c>
+      <c r="O180" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A181" s="2">
+        <v>11</v>
+      </c>
+      <c r="B181" s="2">
+        <v>15</v>
+      </c>
+      <c r="C181" s="2">
+        <v>23</v>
+      </c>
+      <c r="D181" s="2">
+        <v>27</v>
+      </c>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2">
+        <v>17</v>
+      </c>
+      <c r="O181" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A182" s="2">
+        <v>11</v>
+      </c>
+      <c r="B182" s="2">
+        <v>15</v>
+      </c>
+      <c r="C182" s="2">
+        <v>23</v>
+      </c>
+      <c r="D182" s="2">
+        <v>27</v>
+      </c>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2">
+        <v>63265</v>
+      </c>
+      <c r="O182" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A183" s="2">
+        <v>11</v>
+      </c>
+      <c r="B183" s="2">
+        <v>15</v>
+      </c>
+      <c r="C183" s="2">
+        <v>23</v>
+      </c>
+      <c r="D183" s="2">
+        <v>27</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2">
+        <v>63265</v>
+      </c>
+      <c r="O183" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A184" s="2">
+        <v>11</v>
+      </c>
+      <c r="B184" s="2">
+        <v>15</v>
+      </c>
+      <c r="C184" s="2">
+        <v>23</v>
+      </c>
+      <c r="D184" s="2">
+        <v>25</v>
+      </c>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2">
+        <v>15</v>
+      </c>
+      <c r="O184" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A185" s="2">
+        <v>11</v>
+      </c>
+      <c r="B185" s="2">
+        <v>15</v>
+      </c>
+      <c r="C185" s="2">
+        <v>23</v>
+      </c>
+      <c r="D185" s="2">
+        <v>25</v>
+      </c>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2">
+        <v>15</v>
+      </c>
+      <c r="O185" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A186" s="2">
+        <v>11</v>
+      </c>
+      <c r="B186" s="2">
+        <v>15</v>
+      </c>
+      <c r="C186" s="2">
+        <v>23</v>
+      </c>
+      <c r="D186" s="2">
+        <v>24</v>
+      </c>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2">
+        <v>17</v>
+      </c>
+      <c r="O186" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A187" s="2">
+        <v>11</v>
+      </c>
+      <c r="B187" s="2">
+        <v>15</v>
+      </c>
+      <c r="C187" s="2">
+        <v>23</v>
+      </c>
+      <c r="D187" s="2">
+        <v>24</v>
+      </c>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2">
+        <v>17</v>
+      </c>
+      <c r="O187" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A188" s="2">
+        <v>11</v>
+      </c>
+      <c r="B188" s="2">
+        <v>15</v>
+      </c>
+      <c r="C188" s="2">
+        <v>23</v>
+      </c>
+      <c r="D188" s="2">
+        <v>25</v>
+      </c>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="O188" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A189" s="2">
+        <v>11</v>
+      </c>
+      <c r="B189" s="2">
+        <v>15</v>
+      </c>
+      <c r="C189" s="2">
+        <v>23</v>
+      </c>
+      <c r="D189" s="2">
+        <v>25</v>
+      </c>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
+      <c r="O189" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A190" s="2">
+        <v>11</v>
+      </c>
+      <c r="B190" s="2">
+        <v>14</v>
+      </c>
+      <c r="C190" s="2">
+        <v>23</v>
+      </c>
+      <c r="D190" s="2">
+        <v>25</v>
+      </c>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2">
+        <v>60</v>
+      </c>
+      <c r="O190" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A191" s="2">
+        <v>11</v>
+      </c>
+      <c r="B191" s="2">
+        <v>14</v>
+      </c>
+      <c r="C191" s="2">
+        <v>23</v>
+      </c>
+      <c r="D191" s="2">
+        <v>25</v>
+      </c>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2">
+        <v>2379</v>
+      </c>
+      <c r="O191" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A192" s="2">
+        <v>18</v>
+      </c>
+      <c r="B192" s="2">
+        <v>14</v>
+      </c>
+      <c r="C192" s="2">
+        <v>23</v>
+      </c>
+      <c r="D192" s="2">
+        <v>25</v>
+      </c>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2">
+        <v>60</v>
+      </c>
+      <c r="O192" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A193" s="2">
+        <v>18</v>
+      </c>
+      <c r="B193" s="2">
+        <v>14</v>
+      </c>
+      <c r="C193" s="2">
+        <v>23</v>
+      </c>
+      <c r="D193" s="2">
+        <v>25</v>
+      </c>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2">
+        <v>2379</v>
+      </c>
+      <c r="O193" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A194" s="2">
+        <v>12</v>
+      </c>
+      <c r="B194" s="2">
+        <v>14</v>
+      </c>
+      <c r="C194" s="2">
+        <v>23</v>
+      </c>
+      <c r="D194" s="2">
+        <v>24</v>
+      </c>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2">
+        <v>1736</v>
+      </c>
+      <c r="O194" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A195" s="2">
+        <v>12</v>
+      </c>
+      <c r="B195" s="2">
+        <v>14</v>
+      </c>
+      <c r="C195" s="2">
+        <v>23</v>
+      </c>
+      <c r="D195" s="2">
+        <v>24</v>
+      </c>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2">
+        <v>1955</v>
+      </c>
+      <c r="O195" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A196" s="2">
+        <v>11</v>
+      </c>
+      <c r="B196" s="2">
+        <v>14</v>
+      </c>
+      <c r="C196" s="2">
+        <v>23</v>
+      </c>
+      <c r="D196" s="2">
+        <v>24</v>
+      </c>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2">
+        <v>1736</v>
+      </c>
+      <c r="O196" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A197" s="2">
+        <v>11</v>
+      </c>
+      <c r="B197" s="2">
+        <v>14</v>
+      </c>
+      <c r="C197" s="2">
+        <v>23</v>
+      </c>
+      <c r="D197" s="2">
+        <v>24</v>
+      </c>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2">
+        <v>1955</v>
+      </c>
+      <c r="O197" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A198" s="2">
+        <v>11</v>
+      </c>
+      <c r="B198" s="2">
+        <v>14</v>
+      </c>
+      <c r="C198" s="2">
+        <v>23</v>
+      </c>
+      <c r="D198" s="2">
+        <v>24</v>
+      </c>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2">
+        <v>62</v>
+      </c>
+      <c r="O198" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A199" s="2">
+        <v>11</v>
+      </c>
+      <c r="B199" s="2">
+        <v>14</v>
+      </c>
+      <c r="C199" s="2">
+        <v>25</v>
+      </c>
+      <c r="D199" s="2">
+        <v>24</v>
+      </c>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2">
+        <v>62</v>
+      </c>
+      <c r="O199" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A200" s="2">
+        <v>12</v>
+      </c>
+      <c r="B200" s="2">
+        <v>14</v>
+      </c>
+      <c r="C200" s="2">
+        <v>25</v>
+      </c>
+      <c r="D200" s="2">
+        <v>24</v>
+      </c>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2">
+        <v>4638</v>
+      </c>
+      <c r="O200" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A201" s="2">
+        <v>12</v>
+      </c>
+      <c r="B201" s="2">
+        <v>14</v>
+      </c>
+      <c r="C201" s="2">
+        <v>25</v>
+      </c>
+      <c r="D201" s="2">
+        <v>24</v>
+      </c>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2">
+        <v>4638</v>
+      </c>
+      <c r="O201" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A202" s="2">
+        <v>11</v>
+      </c>
+      <c r="B202" s="2">
+        <v>14</v>
+      </c>
+      <c r="C202" s="2">
+        <v>24</v>
+      </c>
+      <c r="D202" s="2">
+        <v>24</v>
+      </c>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2">
+        <v>9568</v>
+      </c>
+      <c r="O202" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A203" s="2">
+        <v>11</v>
+      </c>
+      <c r="B203" s="2">
+        <v>14</v>
+      </c>
+      <c r="C203" s="2">
+        <v>24</v>
+      </c>
+      <c r="D203" s="2">
+        <v>24</v>
+      </c>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2">
+        <v>9568</v>
+      </c>
+      <c r="O203" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A204" s="2">
+        <v>11</v>
+      </c>
+      <c r="B204" s="2">
+        <v>14</v>
+      </c>
+      <c r="C204" s="2">
+        <v>24</v>
+      </c>
+      <c r="D204" s="2">
+        <v>25</v>
+      </c>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2">
+        <v>16</v>
+      </c>
+      <c r="O204" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A205" s="2">
+        <v>11</v>
+      </c>
+      <c r="B205" s="2">
+        <v>14</v>
+      </c>
+      <c r="C205" s="2">
+        <v>24</v>
+      </c>
+      <c r="D205" s="2">
+        <v>25</v>
+      </c>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2">
+        <v>16</v>
+      </c>
+      <c r="O205" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A206" s="2">
+        <v>11</v>
+      </c>
+      <c r="B206" s="2">
+        <v>14</v>
+      </c>
+      <c r="C206" s="2">
+        <v>24</v>
+      </c>
+      <c r="D206" s="2">
+        <v>24</v>
+      </c>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2">
+        <v>10881</v>
+      </c>
+      <c r="O206" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A207" s="2">
+        <v>11</v>
+      </c>
+      <c r="B207" s="2">
+        <v>14</v>
+      </c>
+      <c r="C207" s="2">
+        <v>24</v>
+      </c>
+      <c r="D207" s="2">
+        <v>24</v>
+      </c>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2">
+        <v>10881</v>
+      </c>
+      <c r="O207" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A208" s="2">
+        <v>10</v>
+      </c>
+      <c r="B208" s="2">
+        <v>14</v>
+      </c>
+      <c r="C208" s="2">
+        <v>24</v>
+      </c>
+      <c r="D208" s="2">
+        <v>25</v>
+      </c>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2">
+        <v>19</v>
+      </c>
+      <c r="O208" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A209" s="2">
+        <v>10</v>
+      </c>
+      <c r="B209" s="2">
+        <v>14</v>
+      </c>
+      <c r="C209" s="2">
+        <v>24</v>
+      </c>
+      <c r="D209" s="2">
+        <v>25</v>
+      </c>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2">
+        <v>19</v>
+      </c>
+      <c r="O209" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A210" s="2">
+        <v>10</v>
+      </c>
+      <c r="B210" s="2">
+        <v>13</v>
+      </c>
+      <c r="C210" s="2">
+        <v>24</v>
+      </c>
+      <c r="D210" s="2">
+        <v>25</v>
+      </c>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2">
+        <v>47243</v>
+      </c>
+      <c r="O210" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A211" s="2">
+        <v>10</v>
+      </c>
+      <c r="B211" s="2">
+        <v>13</v>
+      </c>
+      <c r="C211" s="2">
+        <v>24</v>
+      </c>
+      <c r="D211" s="2">
+        <v>25</v>
+      </c>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2">
+        <v>47243</v>
+      </c>
+      <c r="O211" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A212" s="2">
+        <v>18</v>
+      </c>
+      <c r="B212" s="2">
+        <v>26</v>
+      </c>
+      <c r="C212" s="2">
+        <v>24</v>
+      </c>
+      <c r="D212" s="2">
+        <v>25</v>
+      </c>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2">
+        <v>17</v>
+      </c>
+      <c r="O212" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A213" s="2">
+        <v>18</v>
+      </c>
+      <c r="B213" s="2">
+        <v>26</v>
+      </c>
+      <c r="C213" s="2">
+        <v>24</v>
+      </c>
+      <c r="D213" s="2">
+        <v>25</v>
+      </c>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2">
+        <v>17</v>
+      </c>
+      <c r="O213" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A214" s="2">
+        <v>14</v>
+      </c>
+      <c r="B214" s="2">
+        <v>24</v>
+      </c>
+      <c r="C214" s="2">
+        <v>24</v>
+      </c>
+      <c r="D214" s="2">
+        <v>24</v>
+      </c>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2">
+        <v>17</v>
+      </c>
+      <c r="O214" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A215" s="2">
+        <v>14</v>
+      </c>
+      <c r="B215" s="2">
+        <v>24</v>
+      </c>
+      <c r="C215" s="2">
+        <v>24</v>
+      </c>
+      <c r="D215" s="2">
+        <v>24</v>
+      </c>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2">
+        <v>17</v>
+      </c>
+      <c r="O215" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A216" s="2">
+        <v>15</v>
+      </c>
+      <c r="B216" s="2">
+        <v>23</v>
+      </c>
+      <c r="C216" s="2">
+        <v>24</v>
+      </c>
+      <c r="D216" s="2">
+        <v>24</v>
+      </c>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2">
+        <v>225</v>
+      </c>
+      <c r="O216" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A217" s="2">
+        <v>15</v>
+      </c>
+      <c r="B217" s="2">
+        <v>23</v>
+      </c>
+      <c r="C217" s="2">
+        <v>24</v>
+      </c>
+      <c r="D217" s="2">
+        <v>24</v>
+      </c>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2">
+        <v>225</v>
+      </c>
+      <c r="O217" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A218" s="2">
+        <v>14</v>
+      </c>
+      <c r="B218" s="2">
+        <v>22</v>
+      </c>
+      <c r="C218" s="2">
+        <v>24</v>
+      </c>
+      <c r="D218" s="2">
+        <v>24</v>
+      </c>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2">
+        <v>15</v>
+      </c>
+      <c r="O218" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A219" s="2">
+        <v>14</v>
+      </c>
+      <c r="B219" s="2">
+        <v>22</v>
+      </c>
+      <c r="C219" s="2">
+        <v>24</v>
+      </c>
+      <c r="D219" s="2">
+        <v>24</v>
+      </c>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2">
+        <v>15</v>
+      </c>
+      <c r="O219" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A220" s="2">
+        <v>16</v>
+      </c>
+      <c r="B220" s="2">
+        <v>22</v>
+      </c>
+      <c r="C220" s="2">
+        <v>24</v>
+      </c>
+      <c r="D220" s="2">
+        <v>24</v>
+      </c>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2">
+        <v>25</v>
+      </c>
+      <c r="O220" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A221" s="2">
+        <v>16</v>
+      </c>
+      <c r="B221" s="2">
+        <v>22</v>
+      </c>
+      <c r="C221" s="2">
+        <v>24</v>
+      </c>
+      <c r="D221" s="2">
+        <v>24</v>
+      </c>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2">
+        <v>25</v>
+      </c>
+      <c r="O221" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B222" s="2">
+        <v>21</v>
+      </c>
+      <c r="C222" s="2">
+        <v>24</v>
+      </c>
+      <c r="D222" s="2">
+        <v>24</v>
+      </c>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2">
+        <v>24634</v>
+      </c>
+      <c r="O222" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B223" s="2">
+        <v>21</v>
+      </c>
+      <c r="C223" s="2">
+        <v>24</v>
+      </c>
+      <c r="D223" s="2">
+        <v>24</v>
+      </c>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2">
+        <v>24634</v>
+      </c>
+      <c r="O223" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A224" s="2">
+        <v>20</v>
+      </c>
+      <c r="B224" s="2">
+        <v>20</v>
+      </c>
+      <c r="C224" s="2">
+        <v>24</v>
+      </c>
+      <c r="D224" s="2">
+        <v>24</v>
+      </c>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2">
+        <v>18</v>
+      </c>
+      <c r="O224" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A225" s="2">
+        <v>20</v>
+      </c>
+      <c r="B225" s="2">
+        <v>20</v>
+      </c>
+      <c r="C225" s="2">
+        <v>24</v>
+      </c>
+      <c r="D225" s="2">
+        <v>24</v>
+      </c>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2">
+        <v>18</v>
+      </c>
+      <c r="O225" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B226" s="2">
+        <v>18</v>
+      </c>
+      <c r="C226" s="2">
+        <v>24</v>
+      </c>
+      <c r="D226" s="2">
+        <v>23</v>
+      </c>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2">
+        <v>63209</v>
+      </c>
+      <c r="O226" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B227" s="2">
+        <v>18</v>
+      </c>
+      <c r="C227" s="2">
+        <v>24</v>
+      </c>
+      <c r="D227" s="2">
+        <v>23</v>
+      </c>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2">
+        <v>63209</v>
+      </c>
+      <c r="O227" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A228" s="2">
+        <v>16</v>
+      </c>
+      <c r="B228" s="2">
+        <v>18</v>
+      </c>
+      <c r="C228" s="2">
+        <v>24</v>
+      </c>
+      <c r="D228" s="2">
+        <v>22</v>
+      </c>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2">
+        <v>17</v>
+      </c>
+      <c r="O228" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A229" s="2">
+        <v>16</v>
+      </c>
+      <c r="B229" s="2">
+        <v>18</v>
+      </c>
+      <c r="C229" s="2">
+        <v>24</v>
+      </c>
+      <c r="D229" s="2">
+        <v>22</v>
+      </c>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2">
+        <v>17</v>
+      </c>
+      <c r="O229" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A230" s="2">
+        <v>9</v>
+      </c>
+      <c r="B230" s="2">
+        <v>18</v>
+      </c>
+      <c r="C230" s="2">
+        <v>24</v>
+      </c>
+      <c r="D230" s="2">
+        <v>22</v>
+      </c>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2">
+        <v>29</v>
+      </c>
+      <c r="O230" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A231" s="2">
+        <v>9</v>
+      </c>
+      <c r="B231" s="2">
+        <v>18</v>
+      </c>
+      <c r="C231" s="2">
+        <v>24</v>
+      </c>
+      <c r="D231" s="2">
+        <v>22</v>
+      </c>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2">
+        <v>29</v>
+      </c>
+      <c r="O231" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B232" s="2">
+        <v>15</v>
+      </c>
+      <c r="C232" s="2">
+        <v>24</v>
+      </c>
+      <c r="D232" s="2">
+        <v>23</v>
+      </c>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2">
+        <v>62840</v>
+      </c>
+      <c r="O232" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B233" s="2">
+        <v>15</v>
+      </c>
+      <c r="C233" s="2">
+        <v>24</v>
+      </c>
+      <c r="D233" s="2">
+        <v>23</v>
+      </c>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2">
+        <v>62840</v>
+      </c>
+      <c r="O233" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A234" s="2">
+        <v>10</v>
+      </c>
+      <c r="B234" s="2">
+        <v>15</v>
+      </c>
+      <c r="C234" s="2">
+        <v>24</v>
+      </c>
+      <c r="D234" s="2">
+        <v>23</v>
+      </c>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2">
+        <v>15</v>
+      </c>
+      <c r="O234" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A235" s="2">
+        <v>10</v>
+      </c>
+      <c r="B235" s="2">
+        <v>15</v>
+      </c>
+      <c r="C235" s="2">
+        <v>24</v>
+      </c>
+      <c r="D235" s="2">
+        <v>23</v>
+      </c>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2">
+        <v>15</v>
+      </c>
+      <c r="O235" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A236" s="2">
+        <v>10</v>
+      </c>
+      <c r="B236" s="2">
+        <v>15</v>
+      </c>
+      <c r="C236" s="2">
+        <v>24</v>
+      </c>
+      <c r="D236" s="2">
+        <v>23</v>
+      </c>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2">
+        <v>15</v>
+      </c>
+      <c r="O236" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A237" s="2">
+        <v>10</v>
+      </c>
+      <c r="B237" s="2">
+        <v>15</v>
+      </c>
+      <c r="C237" s="2">
+        <v>24</v>
+      </c>
+      <c r="D237" s="2">
+        <v>23</v>
+      </c>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2">
+        <v>15</v>
+      </c>
+      <c r="O237" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A238" s="2">
+        <v>18</v>
+      </c>
+      <c r="B238" s="2">
+        <v>14</v>
+      </c>
+      <c r="C238" s="2">
+        <v>24</v>
+      </c>
+      <c r="D238" s="2">
+        <v>23</v>
+      </c>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2">
+        <v>17</v>
+      </c>
+      <c r="O238" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A239" s="2">
+        <v>18</v>
+      </c>
+      <c r="B239" s="2">
+        <v>14</v>
+      </c>
+      <c r="C239" s="2">
+        <v>24</v>
+      </c>
+      <c r="D239" s="2">
+        <v>23</v>
+      </c>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2">
+        <v>17</v>
+      </c>
+      <c r="O239" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A240" s="2">
+        <v>14</v>
+      </c>
+      <c r="B240" s="2">
+        <v>14</v>
+      </c>
+      <c r="C240" s="2">
+        <v>24</v>
+      </c>
+      <c r="D240" s="2">
+        <v>23</v>
+      </c>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2">
+        <v>1996</v>
+      </c>
+      <c r="O240" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A241" s="2">
+        <v>14</v>
+      </c>
+      <c r="B241" s="2">
+        <v>14</v>
+      </c>
+      <c r="C241" s="2">
+        <v>24</v>
+      </c>
+      <c r="D241" s="2">
+        <v>23</v>
+      </c>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2">
+        <v>1996</v>
+      </c>
+      <c r="O241" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A242" s="2">
+        <v>10</v>
+      </c>
+      <c r="B242" s="2">
+        <v>14</v>
+      </c>
+      <c r="C242" s="2">
+        <v>23</v>
+      </c>
+      <c r="D242" s="2">
+        <v>22</v>
+      </c>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2">
+        <v>16</v>
+      </c>
+      <c r="O242" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A243" s="2">
+        <v>10</v>
+      </c>
+      <c r="B243" s="2">
+        <v>14</v>
+      </c>
+      <c r="C243" s="2">
+        <v>23</v>
+      </c>
+      <c r="D243" s="2">
+        <v>22</v>
+      </c>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2">
+        <v>16</v>
+      </c>
+      <c r="O243" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A244" s="2">
+        <v>10</v>
+      </c>
+      <c r="B244" s="2">
+        <v>14</v>
+      </c>
+      <c r="C244" s="2">
+        <v>23</v>
+      </c>
+      <c r="D244" s="2">
+        <v>22</v>
+      </c>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2">
+        <v>15</v>
+      </c>
+      <c r="O244" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A245" s="2">
+        <v>10</v>
+      </c>
+      <c r="B245" s="2">
+        <v>14</v>
+      </c>
+      <c r="C245" s="2">
+        <v>23</v>
+      </c>
+      <c r="D245" s="2">
+        <v>22</v>
+      </c>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2">
+        <v>15</v>
+      </c>
+      <c r="O245" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A246" s="2">
+        <v>10</v>
+      </c>
+      <c r="B246" s="2">
+        <v>14</v>
+      </c>
+      <c r="C246" s="2">
+        <v>23</v>
+      </c>
+      <c r="D246" s="2">
+        <v>21</v>
+      </c>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2">
+        <v>18</v>
+      </c>
+      <c r="O246" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A247" s="2">
+        <v>10</v>
+      </c>
+      <c r="B247" s="2">
+        <v>14</v>
+      </c>
+      <c r="C247" s="2">
+        <v>23</v>
+      </c>
+      <c r="D247" s="2">
+        <v>21</v>
+      </c>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2">
+        <v>18</v>
+      </c>
+      <c r="O247" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A248" s="2">
+        <v>9</v>
+      </c>
+      <c r="B248" s="2">
+        <v>14</v>
+      </c>
+      <c r="C248" s="2">
+        <v>23</v>
+      </c>
+      <c r="D248" s="2">
+        <v>20</v>
+      </c>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
+      <c r="O248" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A249" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
+      <c r="B249" s="2">
+        <v>14</v>
+      </c>
+      <c r="C249" s="2">
+        <v>23</v>
+      </c>
+      <c r="D249" s="2">
+        <v>20</v>
+      </c>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="O249" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A250" s="2">
+        <v>21</v>
+      </c>
+      <c r="B250" s="2">
+        <v>14</v>
+      </c>
+      <c r="C250" s="2">
+        <v>23</v>
+      </c>
+      <c r="D250" s="2">
+        <v>19</v>
+      </c>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2">
+        <v>61</v>
+      </c>
+      <c r="O250" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A251" s="2">
+        <v>21</v>
+      </c>
+      <c r="B251" s="2">
+        <v>14</v>
+      </c>
+      <c r="C251" s="2">
+        <v>23</v>
+      </c>
+      <c r="D251" s="2">
+        <v>19</v>
+      </c>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2">
+        <v>2650</v>
+      </c>
+      <c r="O251" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A252" s="2">
+        <v>17</v>
+      </c>
+      <c r="B252" s="2">
+        <v>14</v>
+      </c>
+      <c r="C252" s="2">
+        <v>23</v>
+      </c>
+      <c r="D252" s="2">
+        <v>21</v>
+      </c>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2">
+        <v>61</v>
+      </c>
+      <c r="O252" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A253" s="2">
+        <v>17</v>
+      </c>
+      <c r="B253" s="2">
+        <v>14</v>
+      </c>
+      <c r="C253" s="2">
+        <v>23</v>
+      </c>
+      <c r="D253" s="2">
+        <v>21</v>
+      </c>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2">
+        <v>2650</v>
+      </c>
+      <c r="O253" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A254" s="2">
+        <v>14</v>
+      </c>
+      <c r="B254" s="2">
+        <v>14</v>
+      </c>
+      <c r="C254" s="2">
+        <v>23</v>
+      </c>
+      <c r="D254" s="2">
+        <v>18</v>
+      </c>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2">
+        <v>69</v>
+      </c>
+      <c r="O254" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A255" s="2">
+        <v>14</v>
+      </c>
+      <c r="B255" s="2">
+        <v>14</v>
+      </c>
+      <c r="C255" s="2">
+        <v>23</v>
+      </c>
+      <c r="D255" s="2">
+        <v>18</v>
+      </c>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2">
+        <v>2464</v>
+      </c>
+      <c r="O255" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B256" s="2">
+        <v>14</v>
+      </c>
+      <c r="C256" s="2">
+        <v>23</v>
+      </c>
+      <c r="D256" s="2">
+        <v>21</v>
+      </c>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2">
+        <v>69</v>
+      </c>
+      <c r="O256" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B257" s="2">
+        <v>14</v>
+      </c>
+      <c r="C257" s="2">
+        <v>23</v>
+      </c>
+      <c r="D257" s="2">
+        <v>21</v>
+      </c>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2">
+        <v>2464</v>
+      </c>
+      <c r="O257" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B258" s="2">
+        <v>14</v>
+      </c>
+      <c r="C258" s="2">
+        <v>23</v>
+      </c>
+      <c r="D258" s="2">
+        <v>20</v>
+      </c>
+      <c r="G258" s="2"/>
+      <c r="H258" s="2">
+        <v>35</v>
+      </c>
+      <c r="O258" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B259" s="2">
+        <v>14</v>
+      </c>
+      <c r="C259" s="2">
+        <v>23</v>
+      </c>
+      <c r="D259" s="2">
+        <v>20</v>
+      </c>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2">
+        <v>4956</v>
+      </c>
+      <c r="O259" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B260" s="2">
+        <v>14</v>
+      </c>
+      <c r="C260" s="2">
+        <v>23</v>
+      </c>
+      <c r="G260" s="2"/>
+      <c r="H260" s="2">
+        <v>35</v>
+      </c>
+      <c r="O260" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B261" s="2">
+        <v>14</v>
+      </c>
+      <c r="C261" s="2">
+        <v>23</v>
+      </c>
+      <c r="G261" s="2"/>
+      <c r="H261" s="2">
+        <v>4956</v>
+      </c>
+      <c r="O261" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B262" s="2">
+        <v>13</v>
+      </c>
+      <c r="C262" s="2">
+        <v>23</v>
+      </c>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2">
+        <v>26789</v>
+      </c>
+      <c r="O262" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B263" s="2">
+        <v>13</v>
+      </c>
+      <c r="C263" s="2">
+        <v>23</v>
+      </c>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2">
+        <v>26789</v>
+      </c>
+      <c r="O263" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B264" s="2">
+        <v>13</v>
+      </c>
+      <c r="C264" s="2">
+        <v>23</v>
+      </c>
+      <c r="G264" s="2"/>
+      <c r="H264" s="2">
+        <v>15</v>
+      </c>
+      <c r="O264" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B265" s="2">
+        <v>13</v>
+      </c>
+      <c r="C265" s="2">
+        <v>23</v>
+      </c>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2">
+        <v>15</v>
+      </c>
+      <c r="O265" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B266" s="2">
+        <v>13</v>
+      </c>
+      <c r="C266" s="2">
+        <v>23</v>
+      </c>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2">
+        <v>52792</v>
+      </c>
+      <c r="O266" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B267" s="2">
+        <v>13</v>
+      </c>
+      <c r="C267" s="2">
+        <v>23</v>
+      </c>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2">
+        <v>52792</v>
+      </c>
+      <c r="O267" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B268" s="2">
+        <v>13</v>
+      </c>
+      <c r="C268" s="2">
+        <v>23</v>
+      </c>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2">
+        <v>18</v>
+      </c>
+      <c r="O268" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B269" s="2">
+        <v>13</v>
+      </c>
+      <c r="C269" s="2">
+        <v>23</v>
+      </c>
+      <c r="G269" s="2"/>
+      <c r="H269" s="2">
+        <v>18</v>
+      </c>
+      <c r="O269" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A270" s="2">
+        <v>10</v>
+      </c>
+      <c r="B270" s="2">
+        <v>12</v>
+      </c>
+      <c r="C270" s="2">
+        <v>23</v>
+      </c>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2">
+        <v>17973</v>
+      </c>
+      <c r="O270" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A271" s="2">
+        <v>10</v>
+      </c>
+      <c r="B271" s="2">
+        <v>12</v>
+      </c>
+      <c r="C271" s="2">
+        <v>23</v>
+      </c>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2">
+        <v>17973</v>
+      </c>
+      <c r="O271" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A272" s="2">
+        <v>22</v>
+      </c>
+      <c r="C272" s="2">
+        <v>22</v>
+      </c>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2">
+        <v>16</v>
+      </c>
+      <c r="O272" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A273" s="2">
+        <v>22</v>
+      </c>
+      <c r="C273" s="2">
+        <v>22</v>
+      </c>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2">
+        <v>16</v>
+      </c>
+      <c r="O273" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A274" s="2">
+        <v>17</v>
+      </c>
+      <c r="C274" s="2">
+        <v>22</v>
+      </c>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2">
+        <v>15</v>
+      </c>
+      <c r="O274" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A275" s="2">
+        <v>17</v>
+      </c>
+      <c r="C275" s="2">
+        <v>22</v>
+      </c>
+      <c r="G275" s="2"/>
+      <c r="H275" s="2">
+        <v>15</v>
+      </c>
+      <c r="O275" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A276" s="2">
+        <v>14</v>
+      </c>
+      <c r="C276" s="2">
+        <v>21</v>
+      </c>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2">
+        <v>17</v>
+      </c>
+      <c r="O276" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A277" s="2">
+        <v>14</v>
+      </c>
+      <c r="C277" s="2">
+        <v>21</v>
+      </c>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2">
+        <v>17</v>
+      </c>
+      <c r="O277" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A278" s="2">
+        <v>10</v>
+      </c>
+      <c r="C278" s="2">
+        <v>20</v>
+      </c>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2">
+        <v>63775</v>
+      </c>
+      <c r="O278" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A279" s="2">
+        <v>10</v>
+      </c>
+      <c r="C279" s="2">
+        <v>20</v>
+      </c>
+      <c r="G279" s="2"/>
+      <c r="H279" s="2">
+        <v>63775</v>
+      </c>
+      <c r="O279" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B280" s="2">
+        <v>17</v>
+      </c>
+      <c r="C280" s="2">
+        <v>19</v>
+      </c>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2">
+        <v>15</v>
+      </c>
+      <c r="O280" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B281" s="2">
+        <v>17</v>
+      </c>
+      <c r="C281" s="2">
+        <v>19</v>
+      </c>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2">
+        <v>15</v>
+      </c>
+      <c r="O281" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B282" s="2">
+        <v>14</v>
+      </c>
+      <c r="C282" s="2">
+        <v>21</v>
+      </c>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2">
+        <v>16</v>
+      </c>
+      <c r="O282" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B283" s="2">
+        <v>14</v>
+      </c>
+      <c r="C283" s="2">
+        <v>21</v>
+      </c>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2">
+        <v>16</v>
+      </c>
+      <c r="O283" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B284" s="2">
+        <v>14</v>
+      </c>
+      <c r="C284" s="2">
+        <v>18</v>
+      </c>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2">
+        <v>23</v>
+      </c>
+      <c r="O284" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B285" s="2">
+        <v>14</v>
+      </c>
+      <c r="C285" s="2">
+        <v>18</v>
+      </c>
+      <c r="G285" s="2"/>
+      <c r="H285" s="2">
+        <v>23</v>
+      </c>
+      <c r="O285" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B286" s="2">
+        <v>14</v>
+      </c>
+      <c r="C286" s="2">
+        <v>21</v>
+      </c>
+      <c r="G286" s="2"/>
+      <c r="H286" s="2">
+        <v>63080</v>
+      </c>
+      <c r="O286" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B287" s="2">
+        <v>14</v>
+      </c>
+      <c r="C287" s="2">
+        <v>21</v>
+      </c>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2">
+        <v>63080</v>
+      </c>
+      <c r="O287" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B288" s="2">
+        <v>14</v>
+      </c>
+      <c r="C288" s="2">
+        <v>20</v>
+      </c>
+      <c r="G288" s="2"/>
+      <c r="H288" s="2">
+        <v>17</v>
+      </c>
+      <c r="O288" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="289" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B289" s="2">
+        <v>14</v>
+      </c>
+      <c r="C289" s="2">
+        <v>20</v>
+      </c>
+      <c r="G289" s="2"/>
+      <c r="H289" s="2">
+        <v>17</v>
+      </c>
+      <c r="O289" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="290" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B290" s="2">
+        <v>13</v>
+      </c>
+      <c r="C290" s="2">
+        <v>19</v>
+      </c>
+      <c r="G290" s="2"/>
+      <c r="H290" s="2">
+        <v>18</v>
+      </c>
+      <c r="O290" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="291" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B291" s="2">
+        <v>13</v>
+      </c>
+      <c r="C291" s="2">
+        <v>19</v>
+      </c>
+      <c r="G291" s="2"/>
+      <c r="H291" s="2">
+        <v>18</v>
+      </c>
+      <c r="O291" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="292" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B292" s="2">
+        <v>13</v>
+      </c>
+      <c r="C292" s="2">
+        <v>18</v>
+      </c>
+      <c r="G292" s="2"/>
+      <c r="H292" s="2">
+        <v>17</v>
+      </c>
+      <c r="O292" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="293" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B293" s="2">
+        <v>13</v>
+      </c>
+      <c r="C293" s="2">
+        <v>18</v>
+      </c>
+      <c r="G293" s="2"/>
+      <c r="H293" s="2">
+        <v>17</v>
+      </c>
+      <c r="O293" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C294" s="2">
+        <v>20</v>
+      </c>
+      <c r="G294" s="2"/>
+      <c r="H294" s="2">
+        <v>63212</v>
+      </c>
+      <c r="O294" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C295" s="2">
+        <v>20</v>
+      </c>
+      <c r="G295" s="2"/>
+      <c r="H295" s="2">
+        <v>63212</v>
+      </c>
+      <c r="O295" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="296" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C296" s="2">
+        <v>18</v>
+      </c>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2">
+        <v>17</v>
+      </c>
+      <c r="O296" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="297" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C297" s="2">
+        <v>18</v>
+      </c>
+      <c r="G297" s="2"/>
+      <c r="H297" s="2">
+        <v>17</v>
+      </c>
+      <c r="O297" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="298" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C298" s="2">
+        <v>18</v>
+      </c>
+      <c r="G298" s="2"/>
+      <c r="H298" s="2">
+        <v>15</v>
+      </c>
+      <c r="O298" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="299" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C299" s="2">
+        <v>18</v>
+      </c>
+      <c r="G299" s="2"/>
+      <c r="H299" s="2">
+        <v>15</v>
+      </c>
+      <c r="O299" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="300" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C300" s="2">
+        <v>18</v>
+      </c>
+      <c r="G300" s="2"/>
+      <c r="H300" s="2">
+        <v>18</v>
+      </c>
+      <c r="O300" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="301" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C301" s="2">
+        <v>18</v>
+      </c>
+      <c r="G301" s="2"/>
+      <c r="H301" s="2">
+        <v>18</v>
+      </c>
+      <c r="O301" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="302" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C302" s="2">
+        <v>18</v>
+      </c>
+      <c r="G302" s="2"/>
+      <c r="H302" s="2">
+        <v>62577</v>
+      </c>
+      <c r="O302" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C303" s="2">
+        <v>18</v>
+      </c>
+      <c r="G303" s="2"/>
+      <c r="H303" s="2">
+        <v>62577</v>
+      </c>
+      <c r="O303" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="304" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="G304" s="2"/>
+      <c r="H304" s="2">
+        <v>23</v>
+      </c>
+      <c r="O304" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="305" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G305" s="2"/>
+      <c r="H305" s="2">
+        <v>23</v>
+      </c>
+      <c r="O305" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="306" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G306" s="2"/>
+      <c r="H306" s="2">
+        <v>17</v>
+      </c>
+      <c r="O306" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="307" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G307" s="2"/>
+      <c r="H307" s="2">
+        <v>17</v>
+      </c>
+      <c r="O307" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="308" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G308" s="2"/>
+      <c r="H308" s="2">
+        <v>6014</v>
+      </c>
+      <c r="O308" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="309" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G309" s="2"/>
+      <c r="H309" s="2">
+        <v>6014</v>
+      </c>
+      <c r="O309" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="310" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G310" s="2"/>
+      <c r="H310" s="2">
+        <v>16</v>
+      </c>
+      <c r="O310" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="311" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G311" s="2"/>
+      <c r="H311" s="2">
+        <v>16</v>
+      </c>
+      <c r="O311" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="312" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G312" s="2"/>
+      <c r="H312" s="2">
+        <v>24</v>
+      </c>
+      <c r="O312" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="313" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G313" s="2"/>
+      <c r="H313" s="2">
+        <v>24</v>
+      </c>
+      <c r="O313" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="314" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G314" s="2"/>
+      <c r="H314" s="2">
+        <v>59000</v>
+      </c>
+      <c r="O314" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="315" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G315" s="2"/>
+      <c r="H315" s="2">
+        <v>59000</v>
+      </c>
+      <c r="O315" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="316" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G316" s="2"/>
+      <c r="H316" s="2">
+        <v>15</v>
+      </c>
+      <c r="O316" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="317" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G317" s="2"/>
+      <c r="H317" s="2">
+        <v>15</v>
+      </c>
+      <c r="O317" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="318" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G318" s="2"/>
+      <c r="H318" s="2">
+        <v>18</v>
+      </c>
+      <c r="O318" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="319" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G319" s="2"/>
+      <c r="H319" s="2">
+        <v>18</v>
+      </c>
+      <c r="O319" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="320" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G320" s="2"/>
+      <c r="H320" s="2">
+        <v>10</v>
+      </c>
+      <c r="O320" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G321" s="2"/>
+      <c r="H321" s="2">
+        <v>10</v>
+      </c>
+      <c r="O321" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="322" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G322" s="2"/>
+      <c r="H322" s="2">
+        <v>63</v>
+      </c>
+      <c r="O322" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="323" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G323" s="2"/>
+      <c r="H323" s="2">
+        <v>63</v>
+      </c>
+      <c r="O323" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="324" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G324" s="2"/>
+      <c r="H324" s="2">
+        <v>1810</v>
+      </c>
+      <c r="O324" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="325" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G325" s="2"/>
+      <c r="H325" s="2">
+        <v>1810</v>
+      </c>
+      <c r="O325" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G326" s="2"/>
+      <c r="H326" s="2">
+        <v>87</v>
+      </c>
+      <c r="O326" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="327" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G327" s="2"/>
+      <c r="H327" s="2">
+        <v>6834</v>
+      </c>
+      <c r="O327" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G328" s="2"/>
+      <c r="H328" s="2">
+        <v>87</v>
+      </c>
+      <c r="O328" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="329" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G329" s="2"/>
+      <c r="H329" s="2">
+        <v>6834</v>
+      </c>
+      <c r="O329" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G330" s="2"/>
+      <c r="H330" s="2">
+        <v>36505</v>
+      </c>
+      <c r="O330" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="331" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G331" s="2"/>
+      <c r="H331" s="2">
+        <v>36505</v>
+      </c>
+      <c r="O331" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G332" s="2"/>
+      <c r="H332" s="2">
+        <v>20</v>
+      </c>
+      <c r="O332" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="333" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G333" s="2"/>
+      <c r="H333" s="2">
+        <v>20</v>
+      </c>
+      <c r="O333" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="334" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G334" s="2"/>
+      <c r="H334" s="2">
+        <v>52797</v>
+      </c>
+      <c r="O334" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G335" s="2"/>
+      <c r="H335" s="2">
+        <v>52797</v>
+      </c>
+      <c r="O335" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="336" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G336" s="2"/>
+      <c r="H336" s="2">
+        <v>19</v>
+      </c>
+      <c r="O336" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="337" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G337" s="2"/>
+      <c r="H337" s="2">
+        <v>19</v>
+      </c>
+      <c r="O337" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="338" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G338" s="2"/>
+      <c r="H338" s="2">
+        <v>5434</v>
+      </c>
+      <c r="O338" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="339" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G339" s="2"/>
+      <c r="H339" s="2">
+        <v>5434</v>
+      </c>
+      <c r="O339" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="340" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G340" s="2"/>
+      <c r="H340" s="2">
+        <v>25</v>
+      </c>
+      <c r="O340" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="341" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G341" s="2"/>
+      <c r="H341" s="2">
+        <v>25</v>
+      </c>
+      <c r="O341" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="342" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G342" s="2"/>
+      <c r="H342" s="2">
+        <v>16</v>
+      </c>
+      <c r="O342" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="343" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G343" s="2"/>
+      <c r="H343" s="2">
+        <v>16</v>
+      </c>
+      <c r="O343" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="344" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G344" s="2"/>
+      <c r="H344" s="2">
+        <v>17</v>
+      </c>
+      <c r="O344" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="345" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G345" s="2"/>
+      <c r="H345" s="2">
+        <v>17</v>
+      </c>
+      <c r="O345" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="346" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G346" s="2"/>
+      <c r="H346" s="2">
+        <v>735</v>
+      </c>
+      <c r="O346" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="347" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G347" s="2"/>
+      <c r="H347" s="2">
+        <v>735</v>
+      </c>
+      <c r="O347" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="348" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G348" s="2"/>
+      <c r="H348" s="2">
+        <v>16</v>
+      </c>
+      <c r="O348" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="349" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G349" s="2"/>
+      <c r="H349" s="2">
+        <v>16</v>
+      </c>
+      <c r="O349" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="350" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G350" s="2"/>
+      <c r="H350" s="2">
+        <v>18</v>
+      </c>
+      <c r="O350" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="351" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G351" s="2"/>
+      <c r="H351" s="2">
+        <v>18</v>
+      </c>
+      <c r="O351" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="352" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G352" s="2"/>
+      <c r="H352" s="2">
+        <v>63242</v>
+      </c>
+      <c r="O352" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="353" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G353" s="2"/>
+      <c r="H353" s="2">
+        <v>63242</v>
+      </c>
+      <c r="O353" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="354" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G354" s="2"/>
+      <c r="H354" s="2">
+        <v>16</v>
+      </c>
+      <c r="O354" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="355" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G355" s="2"/>
+      <c r="H355" s="2">
+        <v>16</v>
+      </c>
+      <c r="O355" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="356" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G356" s="2"/>
+      <c r="H356" s="2">
+        <v>18</v>
+      </c>
+      <c r="O356" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="357" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G357" s="2"/>
+      <c r="H357" s="2">
+        <v>18</v>
+      </c>
+      <c r="O357" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="358" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G358" s="2"/>
+      <c r="H358" s="2">
+        <v>50267</v>
+      </c>
+      <c r="O358" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="359" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G359" s="2"/>
+      <c r="H359" s="2">
+        <v>50267</v>
+      </c>
+      <c r="O359" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="360" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G360" s="2"/>
+      <c r="H360" s="2">
+        <v>15</v>
+      </c>
+      <c r="O360" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="361" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G361" s="2"/>
+      <c r="H361" s="2">
+        <v>15</v>
+      </c>
+      <c r="O361" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="362" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G362" s="2"/>
+      <c r="H362" s="2">
+        <v>16</v>
+      </c>
+      <c r="O362" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="363" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G363" s="2"/>
+      <c r="H363" s="2">
+        <v>16</v>
+      </c>
+      <c r="O363" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="364" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G364" s="2"/>
+      <c r="H364" s="2">
+        <v>17</v>
+      </c>
+      <c r="O364" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G365" s="2"/>
+      <c r="H365" s="2">
+        <v>17</v>
+      </c>
+      <c r="O365" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="366" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G366" s="2"/>
+      <c r="H366" s="2">
+        <v>63242</v>
+      </c>
+      <c r="O366" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="367" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G367" s="2"/>
+      <c r="H367" s="2">
+        <v>63242</v>
+      </c>
+      <c r="O367" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="368" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G368" s="2"/>
+      <c r="H368" s="2">
+        <v>24</v>
+      </c>
+      <c r="O368" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="369" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G369" s="2"/>
+      <c r="H369" s="2">
+        <v>24</v>
+      </c>
+      <c r="O369" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="370" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G370" s="2"/>
+      <c r="H370" s="2">
+        <v>16</v>
+      </c>
+      <c r="O370" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="371" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G371" s="2"/>
+      <c r="H371" s="2">
+        <v>16</v>
+      </c>
+      <c r="O371" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="372" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G372" s="2"/>
+      <c r="H372" s="2">
+        <v>18</v>
+      </c>
+      <c r="O372" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="373" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G373" s="2"/>
+      <c r="H373" s="2">
+        <v>18</v>
+      </c>
+      <c r="O373" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="374" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G374" s="2"/>
+      <c r="H374" s="2">
+        <v>63060</v>
+      </c>
+      <c r="O374" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="375" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G375" s="2"/>
+      <c r="H375" s="2">
+        <v>63060</v>
+      </c>
+      <c r="O375" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="376" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G376" s="2"/>
+      <c r="H376" s="2">
+        <v>15</v>
+      </c>
+      <c r="O376" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G377" s="2"/>
+      <c r="H377" s="2">
+        <v>15</v>
+      </c>
+      <c r="O377" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="378" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G378" s="2"/>
+      <c r="H378" s="2">
+        <v>17</v>
+      </c>
+      <c r="O378" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="379" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G379" s="2"/>
+      <c r="H379" s="2">
+        <v>17</v>
+      </c>
+      <c r="O379" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="380" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G380" s="2"/>
+      <c r="H380" s="2">
+        <v>17</v>
+      </c>
+      <c r="O380" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="381" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G381" s="2"/>
+      <c r="H381" s="2">
+        <v>17</v>
+      </c>
+      <c r="O381" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="382" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G382" s="2"/>
+      <c r="H382" s="2">
+        <v>14900</v>
+      </c>
+      <c r="O382" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="383" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G383" s="2"/>
+      <c r="H383" s="2">
+        <v>14900</v>
+      </c>
+      <c r="O383" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="384" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G384" s="2"/>
+      <c r="H384" s="2">
+        <v>16</v>
+      </c>
+      <c r="O384" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="385" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G385" s="2"/>
+      <c r="H385" s="2">
+        <v>16</v>
+      </c>
+      <c r="O385" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="386" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G386" s="2"/>
+      <c r="H386" s="2">
+        <v>15</v>
+      </c>
+      <c r="O386" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="387" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G387" s="2"/>
+      <c r="H387" s="2">
+        <v>15</v>
+      </c>
+      <c r="O387" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="388" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G388" s="2"/>
+      <c r="H388" s="2">
+        <v>16</v>
+      </c>
+      <c r="O388" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="389" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G389" s="2"/>
+      <c r="H389" s="2">
+        <v>16</v>
+      </c>
+      <c r="O389" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="390" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G390" s="2"/>
+      <c r="H390" s="2">
+        <v>17</v>
+      </c>
+      <c r="O390" s="2"/>
+    </row>
+    <row r="391" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G391" s="2"/>
+      <c r="H391" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="392" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G392" s="2"/>
+      <c r="H392" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G393" s="2"/>
+      <c r="H393" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="394" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G394" s="2"/>
+      <c r="H394" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="395" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G395" s="2"/>
+      <c r="H395" s="2">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="396" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G396" s="2"/>
+      <c r="H396" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="397" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G397" s="2"/>
+      <c r="H397" s="2">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="398" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G398" s="2"/>
+      <c r="H398" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="399" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G399" s="2"/>
+      <c r="H399" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="400" spans="7:15" x14ac:dyDescent="0.4">
+      <c r="G400" s="2"/>
+      <c r="H400" s="2">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="401" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G401" s="2"/>
+      <c r="H401" s="2">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="402" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G402" s="2"/>
+      <c r="H402" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="403" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G403" s="2"/>
+      <c r="H403" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="404" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G404" s="2"/>
+      <c r="H404" s="2">
+        <v>11459</v>
+      </c>
+    </row>
+    <row r="405" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G405" s="2"/>
+      <c r="H405" s="2">
+        <v>11459</v>
+      </c>
+    </row>
+    <row r="406" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G406" s="2"/>
+      <c r="H406" s="2">
+        <v>19777</v>
+      </c>
+    </row>
+    <row r="407" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G407" s="2"/>
+      <c r="H407" s="2">
+        <v>19777</v>
+      </c>
+    </row>
+    <row r="408" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G408" s="2"/>
+      <c r="H408" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="409" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G409" s="2"/>
+      <c r="H409" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G410" s="2"/>
+      <c r="H410" s="2">
+        <v>51453</v>
+      </c>
+    </row>
+    <row r="411" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G411" s="2"/>
+      <c r="H411" s="2">
+        <v>51453</v>
+      </c>
+    </row>
+    <row r="412" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G412" s="2"/>
+      <c r="H412" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="413" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G413" s="2"/>
+      <c r="H413" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="414" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G414" s="2"/>
+      <c r="H414" s="2">
+        <v>29632</v>
+      </c>
+    </row>
+    <row r="415" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G415" s="2"/>
+      <c r="H415" s="2">
+        <v>29632</v>
+      </c>
+    </row>
+    <row r="416" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G416" s="2"/>
+      <c r="H416" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="417" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G417" s="2"/>
+      <c r="H417" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="418" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G418" s="2"/>
+      <c r="H418" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="419" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G419" s="2"/>
+      <c r="H419" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="420" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G420" s="2"/>
+      <c r="H420" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="421" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G421" s="2"/>
+      <c r="H421" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="422" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G422" s="2"/>
+      <c r="H422" s="2">
+        <v>63178</v>
+      </c>
+    </row>
+    <row r="423" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G423" s="2"/>
+      <c r="H423" s="2">
+        <v>63178</v>
+      </c>
+    </row>
+    <row r="424" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G424" s="2"/>
+      <c r="H424" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="425" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G425" s="2"/>
+      <c r="H425" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="426" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G426" s="2"/>
+      <c r="H426" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="427" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G427" s="2"/>
+      <c r="H427" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="428" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G428" s="2"/>
+      <c r="H428" s="2">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="429" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G429" s="2"/>
+      <c r="H429" s="2">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="430" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G430" s="2"/>
+      <c r="H430" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="431" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G431" s="2"/>
+      <c r="H431" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="432" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G432" s="2"/>
+      <c r="H432" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="433" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G433" s="2"/>
+      <c r="H433" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="434" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G434" s="2"/>
+      <c r="H434" s="2">
+        <v>63110</v>
+      </c>
+    </row>
+    <row r="435" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G435" s="2"/>
+      <c r="H435" s="2">
+        <v>63110</v>
+      </c>
+    </row>
+    <row r="436" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G436" s="2"/>
+      <c r="H436" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="437" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G437" s="2"/>
+      <c r="H437" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="438" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G438" s="2"/>
+      <c r="H438" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="439" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G439" s="2"/>
+      <c r="H439" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="440" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G440" s="2"/>
+      <c r="H440" s="2">
+        <v>63614</v>
+      </c>
+    </row>
+    <row r="441" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G441" s="2"/>
+      <c r="H441" s="2">
+        <v>63614</v>
+      </c>
+    </row>
+    <row r="442" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G442" s="2"/>
+      <c r="H442" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="443" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G443" s="2"/>
+      <c r="H443" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="444" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G444" s="2"/>
+      <c r="H444" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="445" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G445" s="2"/>
+      <c r="H445" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="446" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G446" s="2"/>
+      <c r="H446" s="2">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="447" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G447" s="2"/>
+      <c r="H447" s="2">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="448" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G448" s="2"/>
+      <c r="H448" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="449" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G449" s="2"/>
+      <c r="H449" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="450" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G450" s="2"/>
+      <c r="H450" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="451" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G451" s="2"/>
+      <c r="H451" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="452" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G452" s="2"/>
+      <c r="H452" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="453" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G453" s="2"/>
+      <c r="H453" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="454" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G454" s="2"/>
+      <c r="H454" s="2">
+        <v>63134</v>
+      </c>
+    </row>
+    <row r="455" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G455" s="2"/>
+      <c r="H455" s="2">
+        <v>63134</v>
+      </c>
+    </row>
+    <row r="456" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G456" s="2"/>
+      <c r="H456" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="457" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G457" s="2"/>
+      <c r="H457" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="458" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G458" s="2"/>
+      <c r="H458" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="459" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G459" s="2"/>
+      <c r="H459" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="460" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G460" s="2"/>
+      <c r="H460" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="461" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G461" s="2"/>
+      <c r="H461" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="462" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G462" s="2"/>
+      <c r="H462" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="463" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G463" s="2"/>
+      <c r="H463" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="464" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G464" s="2"/>
+      <c r="H464" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="465" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G465" s="2"/>
+      <c r="H465" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="466" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G466" s="2"/>
+      <c r="H466" s="2">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="467" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G467" s="2"/>
+      <c r="H467" s="2">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="468" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G468" s="2"/>
+      <c r="H468" s="2">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="469" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G469" s="2"/>
+      <c r="H469" s="2">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="470" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G470" s="2"/>
+      <c r="H470" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="471" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G471" s="2"/>
+      <c r="H471" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="472" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G472" s="2"/>
+      <c r="H472" s="2">
+        <v>51953</v>
+      </c>
+    </row>
+    <row r="473" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G473" s="2"/>
+      <c r="H473" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="474" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G474" s="2"/>
+      <c r="H474" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="475" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G475" s="2"/>
+      <c r="H475" s="2">
+        <v>51953</v>
+      </c>
+    </row>
+    <row r="476" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G476" s="2"/>
+      <c r="H476" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="477" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G477" s="2"/>
+      <c r="H477" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="478" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G478" s="2"/>
+      <c r="H478" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="479" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G479" s="2"/>
+      <c r="H479" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="480" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G480" s="2"/>
+      <c r="H480" s="2">
+        <v>46894</v>
+      </c>
+    </row>
+    <row r="481" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G481" s="2"/>
+      <c r="H481" s="2">
+        <v>46894</v>
+      </c>
+    </row>
+    <row r="482" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G482" s="2"/>
+      <c r="H482" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="483" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G483" s="2"/>
+      <c r="H483" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="484" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G484" s="2"/>
+      <c r="H484" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="485" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G485" s="2"/>
+      <c r="H485" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="486" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G486" s="2"/>
+      <c r="H486" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="487" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G487" s="2"/>
+      <c r="H487" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="488" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G488" s="2"/>
+      <c r="H488" s="2">
+        <v>62399</v>
+      </c>
+    </row>
+    <row r="489" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G489" s="2"/>
+      <c r="H489" s="2">
+        <v>62399</v>
+      </c>
+    </row>
+    <row r="490" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G490" s="2"/>
+      <c r="H490" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="491" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G491" s="2"/>
+      <c r="H491" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="492" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G492" s="2"/>
+      <c r="H492" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="493" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G493" s="2"/>
+      <c r="H493" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="494" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G494" s="2"/>
+      <c r="H494" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="495" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G495" s="2"/>
+      <c r="H495" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="496" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G496" s="2"/>
+      <c r="H496" s="2">
+        <v>63267</v>
+      </c>
+    </row>
+    <row r="497" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G497" s="2"/>
+      <c r="H497" s="2">
+        <v>63267</v>
+      </c>
+    </row>
+    <row r="498" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G498" s="2"/>
+      <c r="H498" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="499" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G499" s="2"/>
+      <c r="H499" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="500" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G500" s="2"/>
+      <c r="H500" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="501" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G501" s="2"/>
+      <c r="H501" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="502" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G502" s="2"/>
+      <c r="H502" s="2">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="503" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G503" s="2"/>
+      <c r="H503" s="2">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="504" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G504" s="2"/>
+      <c r="H504" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="505" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G505" s="2"/>
+      <c r="H505" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="506" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G506" s="2"/>
+      <c r="H506" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="507" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G507" s="2"/>
+      <c r="H507" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="508" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H508" s="2">
+        <v>8193</v>
+      </c>
+    </row>
+    <row r="509" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H509" s="2">
+        <v>8193</v>
+      </c>
+    </row>
+    <row r="510" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H510" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="511" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H511" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="512" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H512" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="513" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H513" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="514" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H514" s="2">
+        <v>56881</v>
+      </c>
+    </row>
+    <row r="515" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H515" s="2">
+        <v>56881</v>
+      </c>
+    </row>
+    <row r="516" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H516" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="517" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H517" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="518" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H518" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="519" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H519" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="520" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H520" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="521" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H521" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="522" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H522" s="2">
+        <v>60204</v>
+      </c>
+    </row>
+    <row r="523" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H523" s="2">
+        <v>60204</v>
+      </c>
+    </row>
+    <row r="524" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H524" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="525" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H525" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="526" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H526" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="527" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H527" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="528" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H528" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="529" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H529" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="530" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H530" s="2">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="531" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H531" s="2">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="532" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H532" s="2">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="533" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H533" s="2">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="534" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H534" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="535" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H535" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="536" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H536" s="2">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="537" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H537" s="2">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="538" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H538" s="2">
+        <v>57506</v>
+      </c>
+    </row>
+    <row r="539" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H539" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="540" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H540" s="2">
+        <v>57506</v>
+      </c>
+    </row>
+    <row r="541" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H541" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="542" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H542" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="543" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H543" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="544" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H544" s="2">
+        <v>19266</v>
+      </c>
+    </row>
+    <row r="545" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H545" s="2">
+        <v>19266</v>
+      </c>
+    </row>
+    <row r="546" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H546" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="547" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H547" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="548" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H548" s="2">
+        <v>10304</v>
+      </c>
+    </row>
+    <row r="549" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H549" s="2">
+        <v>10304</v>
+      </c>
+    </row>
+    <row r="550" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H550" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="551" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H551" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="552" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H552" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="553" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H553" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="554" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H554" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="555" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H555" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H556" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="557" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H557" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="558" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H558" s="2">
+        <v>17474</v>
+      </c>
+    </row>
+    <row r="559" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H559" s="2">
+        <v>17474</v>
+      </c>
+    </row>
+    <row r="560" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H560" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="561" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H561" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="562" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H562" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="563" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H563" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="564" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H564" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="565" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H565" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="566" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H566" s="2">
+        <v>63628</v>
+      </c>
+    </row>
+    <row r="567" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H567" s="2">
+        <v>63628</v>
+      </c>
+    </row>
+    <row r="568" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H568" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="569" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H569" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="570" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H570" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="571" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H571" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="572" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H572" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="573" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H573" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="574" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H574" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="575" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H575" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="576" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H576" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="577" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H577" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="578" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H578" s="2">
+        <v>62158</v>
+      </c>
+    </row>
+    <row r="579" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H579" s="2">
+        <v>62158</v>
+      </c>
+    </row>
+    <row r="580" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H580" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="581" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H581" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="582" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H582" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="583" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H583" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="584" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H584" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="585" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H585" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="586" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H586" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="587" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H587" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="588" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H588" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="589" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H589" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="590" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H590" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="591" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H591" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="592" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H592" s="2">
+        <v>26402</v>
+      </c>
+    </row>
+    <row r="593" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H593" s="2">
+        <v>26402</v>
+      </c>
+    </row>
+    <row r="594" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H594" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="595" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H595" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="596" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H596" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="597" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H597" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="598" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H598" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="599" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H599" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="600" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H600" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="601" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H601" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="602" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H602" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="603" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H603" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="604" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H604" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="605" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H605" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="606" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H606" s="2">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="607" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H607" s="2">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="608" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H608" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="609" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H609" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="610" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H610" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="611" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H611" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="612" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H612" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="613" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H613" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="614" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H614" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="615" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H615" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D615">
+    <sortState ref="A2:D615">
+      <sortCondition descending="1" ref="C1:C615"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
